--- a/Crypto.xlsx
+++ b/Crypto.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.Finance\Reasearch\3. Makro\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.Finance\Anaylsen\Sectors\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C697FDA-8474-44BE-BCFF-709F9EEB1633}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87BF7FF0-DD13-41A1-84E1-3E100F8464B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="225" yWindow="4680" windowWidth="38175" windowHeight="15240" activeTab="1" xr2:uid="{77CB5F5A-FC47-4BD7-B890-A19EA9D9AD0D}"/>
+    <workbookView xWindow="225" yWindow="4980" windowWidth="38175" windowHeight="15240" xr2:uid="{77CB5F5A-FC47-4BD7-B890-A19EA9D9AD0D}"/>
   </bookViews>
   <sheets>
     <sheet name="Crypto" sheetId="2" r:id="rId1"/>
@@ -1752,7 +1752,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -1760,11 +1760,48 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1780,9 +1817,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1813,6 +1847,21 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2164,69 +2213,80 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E62B02D0-94E9-42E9-AC7C-EEEED2BD9F5D}">
-  <dimension ref="A1:K241"/>
+  <dimension ref="A1:S241"/>
   <sheetViews>
-    <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D5" sqref="D5"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.7109375" customWidth="1"/>
+    <col min="1" max="1" width="4.7109375" customWidth="1"/>
     <col min="5" max="5" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>446</v>
       </c>
       <c r="C1" s="2"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A4" s="21" t="s">
         <v>448</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="22" t="s">
         <v>449</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="22" t="s">
         <v>450</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="23" t="s">
         <v>451</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="24" t="s">
         <v>452</v>
       </c>
-      <c r="F4" s="8" t="s">
+      <c r="F4" s="25" t="s">
         <v>453</v>
       </c>
-      <c r="G4" s="8" t="s">
+      <c r="G4" s="25" t="s">
         <v>454</v>
       </c>
-      <c r="H4" s="8" t="s">
+      <c r="H4" s="25" t="s">
         <v>455</v>
       </c>
-      <c r="I4" s="8" t="s">
+      <c r="I4" s="25" t="s">
         <v>456</v>
       </c>
-      <c r="J4" s="5" t="s">
+      <c r="J4" s="22" t="s">
         <v>457</v>
       </c>
-      <c r="K4" s="5" t="s">
+      <c r="K4" s="22" t="s">
         <v>458</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L4" s="26"/>
+      <c r="M4" s="26"/>
+      <c r="N4" s="26"/>
+      <c r="O4" s="26"/>
+      <c r="P4" s="26"/>
+      <c r="Q4" s="26"/>
+      <c r="R4" s="26"/>
+      <c r="S4" s="27"/>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>1</v>
       </c>
@@ -2236,28 +2296,28 @@
       <c r="C5" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="9">
+      <c r="D5" s="8">
         <v>103880</v>
       </c>
-      <c r="E5" s="9">
+      <c r="E5" s="8">
         <v>2060000</v>
       </c>
-      <c r="F5" s="8">
+      <c r="F5" s="7">
         <v>1</v>
       </c>
-      <c r="G5" s="8" t="s">
+      <c r="G5" s="7" t="s">
         <v>459</v>
       </c>
-      <c r="H5" s="8" t="s">
+      <c r="H5" s="7" t="s">
         <v>460</v>
       </c>
-      <c r="I5" s="8" t="s">
+      <c r="I5" s="7" t="s">
         <v>458</v>
       </c>
       <c r="J5" s="5"/>
       <c r="K5" s="5"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <f>A5+1</f>
         <v>2</v>
@@ -2268,28 +2328,28 @@
       <c r="C6" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="9">
+      <c r="D6" s="8">
         <v>3300</v>
       </c>
-      <c r="E6" s="9">
+      <c r="E6" s="8">
         <v>398590</v>
       </c>
-      <c r="F6" s="8">
+      <c r="F6" s="7">
         <v>1</v>
       </c>
-      <c r="G6" s="8" t="s">
+      <c r="G6" s="7" t="s">
         <v>461</v>
       </c>
-      <c r="H6" s="8" t="s">
+      <c r="H6" s="7" t="s">
         <v>462</v>
       </c>
-      <c r="I6" s="8" t="s">
+      <c r="I6" s="7" t="s">
         <v>458</v>
       </c>
       <c r="J6" s="5"/>
       <c r="K6" s="5"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <f t="shared" ref="A7:A70" si="0">A6+1</f>
         <v>3</v>
@@ -2300,28 +2360,28 @@
       <c r="C7" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="10">
+      <c r="D7" s="9">
         <v>3.12</v>
       </c>
-      <c r="E7" s="9">
+      <c r="E7" s="8">
         <v>179820</v>
       </c>
-      <c r="F7" s="8">
+      <c r="F7" s="7">
         <v>2</v>
       </c>
-      <c r="G7" s="8" t="s">
+      <c r="G7" s="7" t="s">
         <v>463</v>
       </c>
-      <c r="H7" s="8" t="s">
+      <c r="H7" s="7" t="s">
         <v>464</v>
       </c>
-      <c r="I7" s="8" t="s">
+      <c r="I7" s="7" t="s">
         <v>465</v>
       </c>
       <c r="J7" s="5"/>
       <c r="K7" s="5"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <f>A7+1</f>
         <v>4</v>
@@ -2332,22 +2392,22 @@
       <c r="C8" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="9">
+      <c r="D8" s="8">
         <v>690.49</v>
       </c>
-      <c r="E8" s="9">
+      <c r="E8" s="8">
         <v>100180</v>
       </c>
-      <c r="F8" s="8">
+      <c r="F8" s="7">
         <v>1</v>
       </c>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
       <c r="J8" s="5"/>
       <c r="K8" s="5"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -2358,24 +2418,24 @@
       <c r="C9" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="9">
+      <c r="D9" s="8">
         <v>241</v>
       </c>
-      <c r="E9" s="9">
+      <c r="E9" s="8">
         <v>117510</v>
       </c>
-      <c r="F9" s="8">
+      <c r="F9" s="7">
         <v>1</v>
       </c>
-      <c r="G9" s="8" t="s">
+      <c r="G9" s="7" t="s">
         <v>461</v>
       </c>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
       <c r="J9" s="5"/>
       <c r="K9" s="5"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -2386,24 +2446,24 @@
       <c r="C10" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="9">
+      <c r="D10" s="8">
         <v>1</v>
       </c>
-      <c r="E10" s="9">
+      <c r="E10" s="8">
         <v>48350</v>
       </c>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8" t="s">
+      <c r="F10" s="7"/>
+      <c r="G10" s="7" t="s">
         <v>463</v>
       </c>
-      <c r="H10" s="8" t="s">
+      <c r="H10" s="7" t="s">
         <v>466</v>
       </c>
-      <c r="I10" s="8"/>
+      <c r="I10" s="7"/>
       <c r="J10" s="5"/>
       <c r="K10" s="5"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -2414,22 +2474,22 @@
       <c r="C11" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D11" s="11">
+      <c r="D11" s="10">
         <v>1</v>
       </c>
-      <c r="E11" s="9">
+      <c r="E11" s="8">
         <v>138290</v>
       </c>
-      <c r="F11" s="8">
+      <c r="F11" s="7">
         <v>1</v>
       </c>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="8"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
       <c r="J11" s="5"/>
       <c r="K11" s="5"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -2440,30 +2500,30 @@
       <c r="C12" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D12" s="10">
+      <c r="D12" s="9">
         <v>0.38</v>
       </c>
-      <c r="E12" s="9">
+      <c r="E12" s="8">
         <v>54410</v>
       </c>
-      <c r="F12" s="8">
+      <c r="F12" s="7">
         <v>1</v>
       </c>
-      <c r="G12" s="8" t="s">
+      <c r="G12" s="7" t="s">
         <v>459</v>
       </c>
-      <c r="H12" s="8" t="s">
+      <c r="H12" s="7" t="s">
         <v>467</v>
       </c>
-      <c r="I12" s="8" t="s">
+      <c r="I12" s="7" t="s">
         <v>458</v>
       </c>
-      <c r="J12" s="12">
+      <c r="J12" s="11">
         <v>41614</v>
       </c>
       <c r="K12" s="5"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -2474,20 +2534,20 @@
       <c r="C13" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D13" s="10">
+      <c r="D13" s="9">
         <v>0.24</v>
       </c>
-      <c r="E13" s="9">
+      <c r="E13" s="8">
         <v>20770</v>
       </c>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="8"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
       <c r="J13" s="5"/>
       <c r="K13" s="5"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -2498,20 +2558,20 @@
       <c r="C14" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D14" s="9">
+      <c r="D14" s="8">
         <v>51</v>
       </c>
-      <c r="E14" s="9">
+      <c r="E14" s="8">
         <v>12840</v>
       </c>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="8"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
       <c r="J14" s="5"/>
       <c r="K14" s="5"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -2522,20 +2582,20 @@
       <c r="C15" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D15" s="10">
+      <c r="D15" s="9">
         <v>1.01</v>
       </c>
-      <c r="E15" s="9">
+      <c r="E15" s="8">
         <v>35740</v>
       </c>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="8"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
       <c r="J15" s="5"/>
       <c r="K15" s="5"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -2546,19 +2606,19 @@
       <c r="C16" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D16" s="9">
+      <c r="D16" s="8">
         <v>10.18</v>
       </c>
-      <c r="E16" s="9">
+      <c r="E16" s="8">
         <v>18</v>
       </c>
-      <c r="F16" s="8">
+      <c r="F16" s="7">
         <v>1</v>
       </c>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="8"/>
-      <c r="J16" s="12"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="11"/>
       <c r="K16" s="5"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
@@ -2572,16 +2632,16 @@
       <c r="C17" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D17" s="9">
+      <c r="D17" s="8">
         <v>27.75</v>
       </c>
-      <c r="E17" s="9">
+      <c r="E17" s="8">
         <v>11.294</v>
       </c>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="8"/>
-      <c r="I17" s="8"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
       <c r="J17" s="5"/>
       <c r="K17" s="5"/>
     </row>
@@ -2596,21 +2656,21 @@
       <c r="C18" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D18" s="9">
+      <c r="D18" s="8">
         <v>1.838E-5</v>
       </c>
-      <c r="E18" s="9">
+      <c r="E18" s="8">
         <f>+D18*589289.410812</f>
         <v>10.831139370724561</v>
       </c>
-      <c r="F18" s="8">
+      <c r="F18" s="7">
         <v>2</v>
       </c>
-      <c r="G18" s="8" t="s">
+      <c r="G18" s="7" t="s">
         <v>459</v>
       </c>
-      <c r="H18" s="8"/>
-      <c r="I18" s="8" t="s">
+      <c r="H18" s="7"/>
+      <c r="I18" s="7" t="s">
         <v>2</v>
       </c>
       <c r="J18" s="5"/>
@@ -2627,16 +2687,16 @@
       <c r="C19" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="D19" s="9">
+      <c r="D19" s="8">
         <v>11.73</v>
       </c>
-      <c r="E19" s="9">
+      <c r="E19" s="8">
         <v>7.3536169999999998</v>
       </c>
-      <c r="F19" s="8"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="8"/>
-      <c r="I19" s="8"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
       <c r="J19" s="5"/>
       <c r="K19" s="5"/>
     </row>
@@ -2651,18 +2711,18 @@
       <c r="C20" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="D20" s="9">
+      <c r="D20" s="8">
         <v>364.36</v>
       </c>
-      <c r="E20" s="9">
+      <c r="E20" s="8">
         <v>7.2060000000000004</v>
       </c>
-      <c r="F20" s="8"/>
-      <c r="G20" s="8" t="s">
+      <c r="F20" s="7"/>
+      <c r="G20" s="7" t="s">
         <v>468</v>
       </c>
-      <c r="H20" s="8"/>
-      <c r="I20" s="8"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="7"/>
       <c r="J20" s="5"/>
       <c r="K20" s="5"/>
     </row>
@@ -2677,17 +2737,17 @@
       <c r="C21" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D21" s="9">
+      <c r="D21" s="8">
         <v>7.2</v>
       </c>
-      <c r="E21" s="9">
+      <c r="E21" s="8">
         <f>+D21*1.435843913</f>
         <v>10.338076173600001</v>
       </c>
-      <c r="F21" s="8"/>
-      <c r="G21" s="8"/>
-      <c r="H21" s="8"/>
-      <c r="I21" s="8"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="7"/>
       <c r="J21" s="5"/>
       <c r="K21" s="5"/>
     </row>
@@ -2702,16 +2762,16 @@
       <c r="C22" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="D22" s="9">
+      <c r="D22" s="8">
         <v>4.79</v>
       </c>
-      <c r="E22" s="9">
+      <c r="E22" s="8">
         <v>5.8215348699999998</v>
       </c>
-      <c r="F22" s="8"/>
-      <c r="G22" s="8"/>
-      <c r="H22" s="8"/>
-      <c r="I22" s="8"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="7"/>
       <c r="J22" s="5"/>
       <c r="K22" s="5"/>
     </row>
@@ -2726,17 +2786,17 @@
       <c r="C23" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="D23" s="9">
+      <c r="D23" s="8">
         <v>6.1</v>
       </c>
-      <c r="E23" s="9">
+      <c r="E23" s="8">
         <f>+D23*0.926574772</f>
         <v>5.6521061092</v>
       </c>
-      <c r="F23" s="8"/>
-      <c r="G23" s="8"/>
-      <c r="H23" s="8"/>
-      <c r="I23" s="8"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="7"/>
       <c r="J23" s="5"/>
       <c r="K23" s="5"/>
     </row>
@@ -2745,22 +2805,22 @@
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="B24" s="13" t="s">
+      <c r="B24" s="12" t="s">
         <v>36</v>
       </c>
       <c r="C24" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="D24" s="9">
+      <c r="D24" s="8">
         <v>2.02</v>
       </c>
-      <c r="E24" s="9">
+      <c r="E24" s="8">
         <v>5.5720000000000001</v>
       </c>
-      <c r="F24" s="8"/>
-      <c r="G24" s="8"/>
-      <c r="H24" s="8"/>
-      <c r="I24" s="8"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="7"/>
       <c r="J24" s="5"/>
       <c r="K24" s="5"/>
     </row>
@@ -2775,18 +2835,18 @@
       <c r="C25" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="D25" s="9">
+      <c r="D25" s="8">
         <v>0.99980000000000002</v>
       </c>
-      <c r="E25" s="9">
+      <c r="E25" s="8">
         <v>5.3641259999999997</v>
       </c>
-      <c r="F25" s="8"/>
-      <c r="G25" s="8" t="s">
+      <c r="F25" s="7"/>
+      <c r="G25" s="7" t="s">
         <v>463</v>
       </c>
-      <c r="H25" s="8"/>
-      <c r="I25" s="8"/>
+      <c r="H25" s="7"/>
+      <c r="I25" s="7"/>
       <c r="J25" s="5"/>
       <c r="K25" s="5"/>
     </row>
@@ -2801,19 +2861,19 @@
       <c r="C26" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="D26" s="9">
+      <c r="D26" s="8">
         <v>70.900000000000006</v>
       </c>
-      <c r="E26" s="9">
+      <c r="E26" s="8">
         <f>+D26*0.074444894</f>
         <v>5.2781429846000005</v>
       </c>
-      <c r="F26" s="8">
+      <c r="F26" s="7">
         <v>1</v>
       </c>
-      <c r="G26" s="8"/>
-      <c r="H26" s="8"/>
-      <c r="I26" s="8" t="s">
+      <c r="G26" s="7"/>
+      <c r="H26" s="7"/>
+      <c r="I26" s="7" t="s">
         <v>458</v>
       </c>
       <c r="J26" s="5"/>
@@ -2830,72 +2890,72 @@
       <c r="C27" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="D27" s="9">
+      <c r="D27" s="8">
         <v>7.84</v>
       </c>
-      <c r="E27" s="9">
+      <c r="E27" s="8">
         <f>+D27*0.59873614</f>
         <v>4.6940913375999997</v>
       </c>
-      <c r="F27" s="8"/>
-      <c r="G27" s="8" t="s">
+      <c r="F27" s="7"/>
+      <c r="G27" s="7" t="s">
         <v>469</v>
       </c>
-      <c r="H27" s="8"/>
-      <c r="I27" s="8"/>
+      <c r="H27" s="7"/>
+      <c r="I27" s="7"/>
       <c r="J27" s="5"/>
       <c r="K27" s="5"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" s="14">
+      <c r="A28" s="13">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="B28" s="15" t="s">
+      <c r="B28" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="C28" s="15" t="s">
+      <c r="C28" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="D28" s="16">
+      <c r="D28" s="15">
         <v>1.0180000000000001E-5</v>
       </c>
-      <c r="E28" s="16">
+      <c r="E28" s="15">
         <f>+D28*420689</f>
         <v>4.2826140200000005</v>
       </c>
-      <c r="F28" s="8"/>
-      <c r="G28" s="8"/>
-      <c r="H28" s="8"/>
-      <c r="I28" s="8"/>
+      <c r="F28" s="7"/>
+      <c r="G28" s="7"/>
+      <c r="H28" s="7"/>
+      <c r="I28" s="7"/>
       <c r="J28" s="5"/>
       <c r="K28" s="5"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" s="14">
+      <c r="A29" s="13">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="B29" s="15" t="s">
+      <c r="B29" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="C29" s="15" t="s">
+      <c r="C29" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="D29" s="16">
+      <c r="D29" s="15">
         <v>550.27</v>
       </c>
-      <c r="E29" s="16">
+      <c r="E29" s="15">
         <v>4.0615168500000003</v>
       </c>
-      <c r="F29" s="17">
+      <c r="F29" s="16">
         <v>1</v>
       </c>
-      <c r="G29" s="17" t="s">
+      <c r="G29" s="16" t="s">
         <v>461</v>
       </c>
-      <c r="H29" s="8"/>
-      <c r="I29" s="8" t="s">
+      <c r="H29" s="7"/>
+      <c r="I29" s="7" t="s">
         <v>458</v>
       </c>
       <c r="J29" s="5"/>
@@ -2912,21 +2972,21 @@
       <c r="C30" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="D30" s="9">
+      <c r="D30" s="8">
         <v>7.97</v>
       </c>
-      <c r="E30" s="9">
+      <c r="E30" s="8">
         <f>+D30*0.462910056</f>
         <v>3.68939314632</v>
       </c>
-      <c r="F30" s="8">
+      <c r="F30" s="7">
         <v>1</v>
       </c>
-      <c r="G30" s="8" t="s">
+      <c r="G30" s="7" t="s">
         <v>461</v>
       </c>
-      <c r="H30" s="8"/>
-      <c r="I30" s="8" t="s">
+      <c r="H30" s="7"/>
+      <c r="I30" s="7" t="s">
         <v>458</v>
       </c>
       <c r="J30" s="5"/>
@@ -2943,16 +3003,16 @@
       <c r="C31" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="D31" s="9">
+      <c r="D31" s="8">
         <v>1.39</v>
       </c>
-      <c r="E31" s="9">
+      <c r="E31" s="8">
         <v>3.4917457010000001</v>
       </c>
-      <c r="F31" s="8"/>
-      <c r="G31" s="8"/>
-      <c r="H31" s="8"/>
-      <c r="I31" s="8"/>
+      <c r="F31" s="7"/>
+      <c r="G31" s="7"/>
+      <c r="H31" s="7"/>
+      <c r="I31" s="7"/>
       <c r="J31" s="5"/>
       <c r="K31" s="5"/>
     </row>
@@ -2967,16 +3027,16 @@
       <c r="C32" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="D32" s="9">
+      <c r="D32" s="8">
         <v>0.1298</v>
       </c>
-      <c r="E32" s="9">
+      <c r="E32" s="8">
         <v>3.2408000000000001</v>
       </c>
-      <c r="F32" s="8"/>
-      <c r="G32" s="8"/>
-      <c r="H32" s="8"/>
-      <c r="I32" s="8"/>
+      <c r="F32" s="7"/>
+      <c r="G32" s="7"/>
+      <c r="H32" s="7"/>
+      <c r="I32" s="7"/>
       <c r="J32" s="5"/>
       <c r="K32" s="5"/>
     </row>
@@ -2991,21 +3051,21 @@
       <c r="C33" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="D33" s="9">
+      <c r="D33" s="8">
         <v>19.34</v>
       </c>
-      <c r="E33" s="9">
+      <c r="E33" s="8">
         <f>+D33*0.146656036</f>
         <v>2.8363277362399999</v>
       </c>
-      <c r="F33" s="8">
+      <c r="F33" s="7">
         <v>1</v>
       </c>
-      <c r="G33" s="8" t="s">
+      <c r="G33" s="7" t="s">
         <v>461</v>
       </c>
-      <c r="H33" s="8"/>
-      <c r="I33" s="8" t="s">
+      <c r="H33" s="7"/>
+      <c r="I33" s="7" t="s">
         <v>458</v>
       </c>
       <c r="J33" s="5"/>
@@ -3022,19 +3082,19 @@
       <c r="C34" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="D34" s="9">
+      <c r="D34" s="8">
         <v>156.03</v>
       </c>
-      <c r="E34" s="9">
+      <c r="E34" s="8">
         <f>+D34*0.01842631</f>
         <v>2.8750571493000003</v>
       </c>
-      <c r="F34" s="8"/>
-      <c r="G34" s="8" t="s">
+      <c r="F34" s="7"/>
+      <c r="G34" s="7" t="s">
         <v>470</v>
       </c>
-      <c r="H34" s="8"/>
-      <c r="I34" s="8"/>
+      <c r="H34" s="7"/>
+      <c r="I34" s="7"/>
       <c r="J34" s="5"/>
       <c r="K34" s="5"/>
     </row>
@@ -3049,17 +3109,17 @@
       <c r="C35" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="D35" s="9">
+      <c r="D35" s="8">
         <v>9.5350000000000004E-2</v>
       </c>
-      <c r="E35" s="9">
+      <c r="E35" s="8">
         <f>+D35*28.910606833</f>
         <v>2.7566263615265498</v>
       </c>
-      <c r="F35" s="8"/>
-      <c r="G35" s="8"/>
-      <c r="H35" s="8"/>
-      <c r="I35" s="8"/>
+      <c r="F35" s="7"/>
+      <c r="G35" s="7"/>
+      <c r="H35" s="7"/>
+      <c r="I35" s="7"/>
       <c r="J35" s="5"/>
       <c r="K35" s="5"/>
     </row>
@@ -3074,16 +3134,16 @@
       <c r="C36" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="D36" s="9">
+      <c r="D36" s="8">
         <v>0.37109999999999999</v>
       </c>
-      <c r="E36" s="9">
+      <c r="E36" s="8">
         <v>2.8266</v>
       </c>
-      <c r="F36" s="8"/>
-      <c r="G36" s="8"/>
-      <c r="H36" s="8"/>
-      <c r="I36" s="8"/>
+      <c r="F36" s="7"/>
+      <c r="G36" s="7"/>
+      <c r="H36" s="7"/>
+      <c r="I36" s="7"/>
       <c r="J36" s="5"/>
       <c r="K36" s="5"/>
     </row>
@@ -3098,16 +3158,16 @@
       <c r="C37" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="D37" s="9">
+      <c r="D37" s="8">
         <v>1.82</v>
       </c>
-      <c r="E37" s="9">
+      <c r="E37" s="8">
         <v>2.7205149999999998</v>
       </c>
-      <c r="F37" s="8"/>
-      <c r="G37" s="8"/>
-      <c r="H37" s="8"/>
-      <c r="I37" s="8"/>
+      <c r="F37" s="7"/>
+      <c r="G37" s="7"/>
+      <c r="H37" s="7"/>
+      <c r="I37" s="7"/>
       <c r="J37" s="5"/>
       <c r="K37" s="5"/>
     </row>
@@ -3122,16 +3182,16 @@
       <c r="C38" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="D38" s="9">
+      <c r="D38" s="8">
         <v>1</v>
       </c>
-      <c r="E38" s="9">
+      <c r="E38" s="8">
         <v>2.7379120870000002</v>
       </c>
-      <c r="F38" s="8"/>
-      <c r="G38" s="8"/>
-      <c r="H38" s="8"/>
-      <c r="I38" s="8"/>
+      <c r="F38" s="7"/>
+      <c r="G38" s="7"/>
+      <c r="H38" s="7"/>
+      <c r="I38" s="7"/>
       <c r="J38" s="5"/>
       <c r="K38" s="5"/>
     </row>
@@ -3146,19 +3206,19 @@
       <c r="C39" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="D39" s="9">
+      <c r="D39" s="8">
         <v>5.23</v>
       </c>
-      <c r="E39" s="9">
+      <c r="E39" s="8">
         <v>2.7090000000000001</v>
       </c>
-      <c r="F39" s="8">
+      <c r="F39" s="7">
         <v>2</v>
       </c>
-      <c r="G39" s="8" t="s">
+      <c r="G39" s="7" t="s">
         <v>461</v>
       </c>
-      <c r="H39" s="8"/>
+      <c r="H39" s="7"/>
       <c r="I39" s="5" t="s">
         <v>471</v>
       </c>
@@ -3178,16 +3238,16 @@
       <c r="C40" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="D40" s="9">
+      <c r="D40" s="8">
         <v>1.54</v>
       </c>
-      <c r="E40" s="9">
+      <c r="E40" s="8">
         <v>2.515988906</v>
       </c>
-      <c r="F40" s="8"/>
-      <c r="G40" s="8"/>
-      <c r="H40" s="8"/>
-      <c r="I40" s="8"/>
+      <c r="F40" s="7"/>
+      <c r="G40" s="7"/>
+      <c r="H40" s="7"/>
+      <c r="I40" s="7"/>
       <c r="J40" s="5"/>
       <c r="K40" s="5"/>
     </row>
@@ -3202,21 +3262,21 @@
       <c r="C41" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="D41" s="9">
+      <c r="D41" s="8">
         <v>2.5099999999999998</v>
       </c>
-      <c r="E41" s="9">
+      <c r="E41" s="8">
         <f>+D41*0.998906166</f>
         <v>2.50725447666</v>
       </c>
-      <c r="F41" s="8">
+      <c r="F41" s="7">
         <v>2</v>
       </c>
-      <c r="G41" s="8" t="s">
+      <c r="G41" s="7" t="s">
         <v>472</v>
       </c>
-      <c r="H41" s="8"/>
-      <c r="I41" s="8" t="s">
+      <c r="H41" s="7"/>
+      <c r="I41" s="7" t="s">
         <v>7</v>
       </c>
       <c r="J41" s="5"/>
@@ -3233,17 +3293,17 @@
       <c r="C42" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="D42" s="9">
+      <c r="D42" s="8">
         <v>40.159999999999997</v>
       </c>
-      <c r="E42" s="9">
+      <c r="E42" s="8">
         <f>+D42*0.06</f>
         <v>2.4095999999999997</v>
       </c>
-      <c r="F42" s="8"/>
-      <c r="G42" s="8"/>
-      <c r="H42" s="8"/>
-      <c r="I42" s="8"/>
+      <c r="F42" s="7"/>
+      <c r="G42" s="7"/>
+      <c r="H42" s="7"/>
+      <c r="I42" s="7"/>
       <c r="J42" s="5"/>
       <c r="K42" s="5"/>
     </row>
@@ -3258,16 +3318,16 @@
       <c r="C43" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="D43" s="9">
+      <c r="D43" s="8">
         <v>0.58889999999999998</v>
       </c>
-      <c r="E43" s="9">
+      <c r="E43" s="8">
         <v>2.3407650000000002</v>
       </c>
-      <c r="F43" s="8"/>
-      <c r="G43" s="8"/>
-      <c r="H43" s="8"/>
-      <c r="I43" s="8"/>
+      <c r="F43" s="7"/>
+      <c r="G43" s="7"/>
+      <c r="H43" s="7"/>
+      <c r="I43" s="7"/>
       <c r="J43" s="5"/>
       <c r="K43" s="5"/>
     </row>
@@ -3276,22 +3336,22 @@
         <f t="shared" si="1"/>
         <v>40</v>
       </c>
-      <c r="B44" s="13" t="s">
+      <c r="B44" s="12" t="s">
         <v>75</v>
       </c>
       <c r="C44" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="D44" s="9">
+      <c r="D44" s="8">
         <v>130.47999999999999</v>
       </c>
-      <c r="E44" s="9">
+      <c r="E44" s="8">
         <v>1.925249</v>
       </c>
-      <c r="F44" s="8"/>
-      <c r="G44" s="8"/>
-      <c r="H44" s="8"/>
-      <c r="I44" s="8"/>
+      <c r="F44" s="7"/>
+      <c r="G44" s="7"/>
+      <c r="H44" s="7"/>
+      <c r="I44" s="7"/>
       <c r="J44" s="5"/>
       <c r="K44" s="5"/>
     </row>
@@ -3306,17 +3366,17 @@
       <c r="C45" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="D45" s="9">
+      <c r="D45" s="8">
         <v>8.6300000000000008</v>
       </c>
-      <c r="E45" s="9">
+      <c r="E45" s="8">
         <f>+D45*0.390930671</f>
         <v>3.3737316907300006</v>
       </c>
-      <c r="F45" s="8"/>
-      <c r="G45" s="8"/>
-      <c r="H45" s="8"/>
-      <c r="I45" s="8"/>
+      <c r="F45" s="7"/>
+      <c r="G45" s="7"/>
+      <c r="H45" s="7"/>
+      <c r="I45" s="7"/>
       <c r="J45" s="5"/>
       <c r="K45" s="5"/>
     </row>
@@ -3331,17 +3391,17 @@
       <c r="C46" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="D46" s="9">
+      <c r="D46" s="8">
         <v>0.13070000000000001</v>
       </c>
-      <c r="E46" s="9">
+      <c r="E46" s="8">
         <f>+D46*26.571560696</f>
         <v>3.4729029829672</v>
       </c>
-      <c r="F46" s="8"/>
-      <c r="G46" s="8"/>
-      <c r="H46" s="8"/>
-      <c r="I46" s="8"/>
+      <c r="F46" s="7"/>
+      <c r="G46" s="7"/>
+      <c r="H46" s="7"/>
+      <c r="I46" s="7"/>
       <c r="J46" s="5"/>
       <c r="K46" s="5"/>
     </row>
@@ -3356,17 +3416,17 @@
       <c r="C47" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="D47" s="9">
+      <c r="D47" s="8">
         <v>8.7349999999999997E-2</v>
       </c>
-      <c r="E47" s="9">
+      <c r="E47" s="8">
         <f>+D47*35.741578542</f>
         <v>3.1220268856436997</v>
       </c>
-      <c r="F47" s="8"/>
-      <c r="G47" s="8"/>
-      <c r="H47" s="8"/>
-      <c r="I47" s="8"/>
+      <c r="F47" s="7"/>
+      <c r="G47" s="7"/>
+      <c r="H47" s="7"/>
+      <c r="I47" s="7"/>
       <c r="J47" s="5"/>
       <c r="K47" s="5"/>
     </row>
@@ -3381,17 +3441,17 @@
       <c r="C48" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="D48" s="9">
+      <c r="D48" s="8">
         <v>4.1980000000000003E-2</v>
       </c>
-      <c r="E48" s="9">
+      <c r="E48" s="8">
         <f>+D48*72.714516834</f>
         <v>3.05255541669132</v>
       </c>
-      <c r="F48" s="8"/>
-      <c r="G48" s="8"/>
-      <c r="H48" s="8"/>
-      <c r="I48" s="8"/>
+      <c r="F48" s="7"/>
+      <c r="G48" s="7"/>
+      <c r="H48" s="7"/>
+      <c r="I48" s="7"/>
       <c r="J48" s="5"/>
       <c r="K48" s="5"/>
     </row>
@@ -3406,17 +3466,17 @@
       <c r="C49" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="D49" s="9">
+      <c r="D49" s="8">
         <v>3113.86</v>
       </c>
-      <c r="E49" s="9">
+      <c r="E49" s="8">
         <f>+D49*0.924717/1000</f>
         <v>2.8794392776200004</v>
       </c>
-      <c r="F49" s="8"/>
-      <c r="G49" s="8"/>
-      <c r="H49" s="8"/>
-      <c r="I49" s="8"/>
+      <c r="F49" s="7"/>
+      <c r="G49" s="7"/>
+      <c r="H49" s="7"/>
+      <c r="I49" s="7"/>
       <c r="J49" s="5"/>
       <c r="K49" s="5"/>
     </row>
@@ -3431,17 +3491,17 @@
       <c r="C50" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="D50" s="9">
+      <c r="D50" s="8">
         <v>29.3</v>
       </c>
-      <c r="E50" s="9">
+      <c r="E50" s="8">
         <f>+D50*0.0934</f>
         <v>2.7366199999999998</v>
       </c>
-      <c r="F50" s="8"/>
-      <c r="G50" s="8"/>
-      <c r="H50" s="8"/>
-      <c r="I50" s="8"/>
+      <c r="F50" s="7"/>
+      <c r="G50" s="7"/>
+      <c r="H50" s="7"/>
+      <c r="I50" s="7"/>
       <c r="J50" s="5"/>
       <c r="K50" s="5"/>
     </row>
@@ -3456,17 +3516,17 @@
       <c r="C51" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="D51" s="9">
+      <c r="D51" s="8">
         <v>0.2903</v>
       </c>
-      <c r="E51" s="9">
+      <c r="E51" s="8">
         <f>+D51*9.482456444</f>
         <v>2.7527571056932003</v>
       </c>
-      <c r="F51" s="8"/>
-      <c r="G51" s="8"/>
-      <c r="H51" s="8"/>
-      <c r="I51" s="8"/>
+      <c r="F51" s="7"/>
+      <c r="G51" s="7"/>
+      <c r="H51" s="7"/>
+      <c r="I51" s="7"/>
       <c r="J51" s="5"/>
       <c r="K51" s="5"/>
     </row>
@@ -3481,17 +3541,17 @@
       <c r="C52" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="D52" s="9">
+      <c r="D52" s="8">
         <v>2.4900000000000002</v>
       </c>
-      <c r="E52" s="9">
+      <c r="E52" s="8">
         <f>+D52*1.045379867</f>
         <v>2.6029958688300003</v>
       </c>
-      <c r="F52" s="8"/>
-      <c r="G52" s="8"/>
-      <c r="H52" s="8"/>
-      <c r="I52" s="8"/>
+      <c r="F52" s="7"/>
+      <c r="G52" s="7"/>
+      <c r="H52" s="7"/>
+      <c r="I52" s="7"/>
       <c r="J52" s="5"/>
       <c r="K52" s="5"/>
     </row>
@@ -3506,17 +3566,17 @@
       <c r="C53" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="D53" s="9">
+      <c r="D53" s="8">
         <v>2.33</v>
       </c>
-      <c r="E53" s="9">
+      <c r="E53" s="8">
         <f>+D53*1</f>
         <v>2.33</v>
       </c>
-      <c r="F53" s="8"/>
-      <c r="G53" s="8"/>
-      <c r="H53" s="8"/>
-      <c r="I53" s="8"/>
+      <c r="F53" s="7"/>
+      <c r="G53" s="7"/>
+      <c r="H53" s="7"/>
+      <c r="I53" s="7"/>
       <c r="J53" s="5"/>
       <c r="K53" s="5"/>
     </row>
@@ -3531,16 +3591,16 @@
       <c r="C54" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="D54" s="9">
+      <c r="D54" s="8">
         <v>3.42</v>
       </c>
-      <c r="E54" s="9">
+      <c r="E54" s="8">
         <v>3.0486780000000002</v>
       </c>
-      <c r="F54" s="8"/>
-      <c r="G54" s="8"/>
-      <c r="H54" s="8"/>
-      <c r="I54" s="8"/>
+      <c r="F54" s="7"/>
+      <c r="G54" s="7"/>
+      <c r="H54" s="7"/>
+      <c r="I54" s="7"/>
       <c r="J54" s="5"/>
       <c r="K54" s="5"/>
     </row>
@@ -3555,17 +3615,17 @@
       <c r="C55" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="D55" s="9">
+      <c r="D55" s="8">
         <v>1.25</v>
       </c>
-      <c r="E55" s="9">
+      <c r="E55" s="8">
         <f>+D55*3.264441708</f>
         <v>4.0805521350000005</v>
       </c>
-      <c r="F55" s="8"/>
-      <c r="G55" s="8"/>
-      <c r="H55" s="8"/>
-      <c r="I55" s="8"/>
+      <c r="F55" s="7"/>
+      <c r="G55" s="7"/>
+      <c r="H55" s="7"/>
+      <c r="I55" s="7"/>
       <c r="J55" s="5"/>
       <c r="K55" s="5"/>
     </row>
@@ -3580,18 +3640,18 @@
       <c r="C56" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="D56" s="9">
+      <c r="D56" s="8">
         <v>3.85</v>
       </c>
-      <c r="E56" s="9">
+      <c r="E56" s="8">
         <v>2.2852030000000001</v>
       </c>
-      <c r="F56" s="8"/>
-      <c r="G56" s="8" t="s">
+      <c r="F56" s="7"/>
+      <c r="G56" s="7" t="s">
         <v>473</v>
       </c>
-      <c r="H56" s="8"/>
-      <c r="I56" s="8"/>
+      <c r="H56" s="7"/>
+      <c r="I56" s="7"/>
       <c r="J56" s="5"/>
       <c r="K56" s="5"/>
     </row>
@@ -3606,16 +3666,16 @@
       <c r="C57" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="D57" s="9">
+      <c r="D57" s="8">
         <v>45.88</v>
       </c>
-      <c r="E57" s="9">
+      <c r="E57" s="8">
         <v>3.0104519999999999</v>
       </c>
-      <c r="F57" s="8"/>
-      <c r="G57" s="8"/>
-      <c r="H57" s="8"/>
-      <c r="I57" s="8"/>
+      <c r="F57" s="7"/>
+      <c r="G57" s="7"/>
+      <c r="H57" s="7"/>
+      <c r="I57" s="7"/>
       <c r="J57" s="5"/>
       <c r="K57" s="5"/>
     </row>
@@ -3630,16 +3690,16 @@
       <c r="C58" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="D58" s="9">
+      <c r="D58" s="8">
         <v>16.32</v>
       </c>
-      <c r="E58" s="9">
+      <c r="E58" s="8">
         <v>2.7634949999999998</v>
       </c>
-      <c r="F58" s="8"/>
-      <c r="G58" s="8"/>
-      <c r="H58" s="8"/>
-      <c r="I58" s="8"/>
+      <c r="F58" s="7"/>
+      <c r="G58" s="7"/>
+      <c r="H58" s="7"/>
+      <c r="I58" s="7"/>
       <c r="J58" s="5"/>
       <c r="K58" s="5"/>
     </row>
@@ -3654,16 +3714,16 @@
       <c r="C59" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="D59" s="9">
+      <c r="D59" s="8">
         <v>2.566E-4</v>
       </c>
-      <c r="E59" s="9">
+      <c r="E59" s="8">
         <v>2.4470000000000001</v>
       </c>
-      <c r="F59" s="8"/>
-      <c r="G59" s="8"/>
-      <c r="H59" s="8"/>
-      <c r="I59" s="8"/>
+      <c r="F59" s="7"/>
+      <c r="G59" s="7"/>
+      <c r="H59" s="7"/>
+      <c r="I59" s="7"/>
       <c r="J59" s="5"/>
       <c r="K59" s="5"/>
     </row>
@@ -3678,16 +3738,16 @@
       <c r="C60" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="D60" s="9">
+      <c r="D60" s="8">
         <v>7.25</v>
       </c>
-      <c r="E60" s="9">
+      <c r="E60" s="8">
         <v>2.4660000000000002</v>
       </c>
-      <c r="F60" s="8"/>
-      <c r="G60" s="8"/>
-      <c r="H60" s="8"/>
-      <c r="I60" s="8"/>
+      <c r="F60" s="7"/>
+      <c r="G60" s="7"/>
+      <c r="H60" s="7"/>
+      <c r="I60" s="7"/>
       <c r="J60" s="5"/>
       <c r="K60" s="5"/>
     </row>
@@ -3702,16 +3762,16 @@
       <c r="C61" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="D61" s="9">
+      <c r="D61" s="8">
         <v>0.81689999999999996</v>
       </c>
-      <c r="E61" s="9">
+      <c r="E61" s="8">
         <v>2.290152</v>
       </c>
-      <c r="F61" s="8"/>
-      <c r="G61" s="8"/>
-      <c r="H61" s="8"/>
-      <c r="I61" s="8"/>
+      <c r="F61" s="7"/>
+      <c r="G61" s="7"/>
+      <c r="H61" s="7"/>
+      <c r="I61" s="7"/>
       <c r="J61" s="5"/>
       <c r="K61" s="5"/>
     </row>
@@ -3726,16 +3786,16 @@
       <c r="C62" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="D62" s="9">
+      <c r="D62" s="8">
         <v>0.90290000000000004</v>
       </c>
-      <c r="E62" s="9">
+      <c r="E62" s="8">
         <v>2.3010000000000002</v>
       </c>
-      <c r="F62" s="8"/>
-      <c r="G62" s="8"/>
-      <c r="H62" s="8"/>
-      <c r="I62" s="8"/>
+      <c r="F62" s="7"/>
+      <c r="G62" s="7"/>
+      <c r="H62" s="7"/>
+      <c r="I62" s="7"/>
       <c r="J62" s="5"/>
       <c r="K62" s="5"/>
     </row>
@@ -3750,20 +3810,20 @@
       <c r="C63" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="D63" s="9">
+      <c r="D63" s="8">
         <v>116.77</v>
       </c>
-      <c r="E63" s="9">
+      <c r="E63" s="8">
         <v>2.29522</v>
       </c>
-      <c r="F63" s="8">
+      <c r="F63" s="7">
         <v>1</v>
       </c>
-      <c r="G63" s="8" t="s">
+      <c r="G63" s="7" t="s">
         <v>468</v>
       </c>
-      <c r="H63" s="8"/>
-      <c r="I63" s="8"/>
+      <c r="H63" s="7"/>
+      <c r="I63" s="7"/>
       <c r="J63" s="5"/>
       <c r="K63" s="5"/>
     </row>
@@ -3778,16 +3838,16 @@
       <c r="C64" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="D64" s="9">
+      <c r="D64" s="8">
         <v>0.26769999999999999</v>
       </c>
-      <c r="E64" s="9">
+      <c r="E64" s="8">
         <v>2.158083</v>
       </c>
-      <c r="F64" s="8"/>
-      <c r="G64" s="8"/>
-      <c r="H64" s="8"/>
-      <c r="I64" s="8"/>
+      <c r="F64" s="7"/>
+      <c r="G64" s="7"/>
+      <c r="H64" s="7"/>
+      <c r="I64" s="7"/>
       <c r="J64" s="5"/>
       <c r="K64" s="5"/>
     </row>
@@ -3802,16 +3862,16 @@
       <c r="C65" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="D65" s="9">
+      <c r="D65" s="8">
         <v>3.1579999999999999E-5</v>
       </c>
-      <c r="E65" s="9">
+      <c r="E65" s="8">
         <v>2.0670929999999998</v>
       </c>
-      <c r="F65" s="8"/>
-      <c r="G65" s="8"/>
-      <c r="H65" s="8"/>
-      <c r="I65" s="8"/>
+      <c r="F65" s="7"/>
+      <c r="G65" s="7"/>
+      <c r="H65" s="7"/>
+      <c r="I65" s="7"/>
       <c r="J65" s="5"/>
       <c r="K65" s="5"/>
     </row>
@@ -3826,16 +3886,16 @@
       <c r="C66" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="D66" s="9">
+      <c r="D66" s="8">
         <v>3.9129999999999998E-2</v>
       </c>
-      <c r="E66" s="9">
+      <c r="E66" s="8">
         <v>2.0497589999999999</v>
       </c>
-      <c r="F66" s="8"/>
-      <c r="G66" s="8"/>
-      <c r="H66" s="8"/>
-      <c r="I66" s="8"/>
+      <c r="F66" s="7"/>
+      <c r="G66" s="7"/>
+      <c r="H66" s="7"/>
+      <c r="I66" s="7"/>
       <c r="J66" s="5"/>
       <c r="K66" s="5"/>
     </row>
@@ -3850,16 +3910,16 @@
       <c r="C67" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="D67" s="9">
+      <c r="D67" s="8">
         <v>1.33</v>
       </c>
-      <c r="E67" s="9">
+      <c r="E67" s="8">
         <v>1.9841420000000001</v>
       </c>
-      <c r="F67" s="8"/>
-      <c r="G67" s="8"/>
-      <c r="H67" s="8"/>
-      <c r="I67" s="8"/>
+      <c r="F67" s="7"/>
+      <c r="G67" s="7"/>
+      <c r="H67" s="7"/>
+      <c r="I67" s="7"/>
       <c r="J67" s="5"/>
       <c r="K67" s="5"/>
     </row>
@@ -3874,16 +3934,16 @@
       <c r="C68" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="D68" s="9">
+      <c r="D68" s="8">
         <v>4.25</v>
       </c>
-      <c r="E68" s="9">
+      <c r="E68" s="8">
         <v>1.983738118</v>
       </c>
-      <c r="F68" s="8"/>
-      <c r="G68" s="8"/>
-      <c r="H68" s="8"/>
-      <c r="I68" s="8"/>
+      <c r="F68" s="7"/>
+      <c r="G68" s="7"/>
+      <c r="H68" s="7"/>
+      <c r="I68" s="7"/>
       <c r="J68" s="5"/>
       <c r="K68" s="5"/>
     </row>
@@ -3898,16 +3958,16 @@
       <c r="C69" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="D69" s="9">
+      <c r="D69" s="8">
         <v>1.855E-6</v>
       </c>
-      <c r="E69" s="9">
+      <c r="E69" s="8">
         <v>1.7958689999999999</v>
       </c>
-      <c r="F69" s="8"/>
-      <c r="G69" s="8"/>
-      <c r="H69" s="8"/>
-      <c r="I69" s="8"/>
+      <c r="F69" s="7"/>
+      <c r="G69" s="7"/>
+      <c r="H69" s="7"/>
+      <c r="I69" s="7"/>
       <c r="J69" s="5"/>
       <c r="K69" s="5"/>
     </row>
@@ -3922,16 +3982,16 @@
       <c r="C70" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="D70" s="9">
+      <c r="D70" s="8">
         <v>4.1489999999999999E-2</v>
       </c>
-      <c r="E70" s="9">
+      <c r="E70" s="8">
         <v>1.4440120000000001</v>
       </c>
-      <c r="F70" s="8"/>
-      <c r="G70" s="8"/>
-      <c r="H70" s="8"/>
-      <c r="I70" s="8"/>
+      <c r="F70" s="7"/>
+      <c r="G70" s="7"/>
+      <c r="H70" s="7"/>
+      <c r="I70" s="7"/>
       <c r="J70" s="5"/>
       <c r="K70" s="5"/>
     </row>
@@ -3946,16 +4006,16 @@
       <c r="C71" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="D71" s="9">
+      <c r="D71" s="8">
         <v>66.84</v>
       </c>
-      <c r="E71" s="9">
+      <c r="E71" s="8">
         <v>1.782637</v>
       </c>
-      <c r="F71" s="8"/>
-      <c r="G71" s="8"/>
-      <c r="H71" s="8"/>
-      <c r="I71" s="8"/>
+      <c r="F71" s="7"/>
+      <c r="G71" s="7"/>
+      <c r="H71" s="7"/>
+      <c r="I71" s="7"/>
       <c r="J71" s="5"/>
       <c r="K71" s="5"/>
     </row>
@@ -3970,16 +4030,16 @@
       <c r="C72" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="D72" s="9">
+      <c r="D72" s="8">
         <v>2.3199999999999998</v>
       </c>
-      <c r="E72" s="9">
+      <c r="E72" s="8">
         <v>1.6901729999999999</v>
       </c>
-      <c r="F72" s="8"/>
-      <c r="G72" s="8"/>
-      <c r="H72" s="8"/>
-      <c r="I72" s="8"/>
+      <c r="F72" s="7"/>
+      <c r="G72" s="7"/>
+      <c r="H72" s="7"/>
+      <c r="I72" s="7"/>
       <c r="J72" s="5"/>
       <c r="K72" s="5"/>
     </row>
@@ -3994,16 +4054,16 @@
       <c r="C73" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="D73" s="9">
+      <c r="D73" s="8">
         <v>78.790000000000006</v>
       </c>
-      <c r="E73" s="9">
+      <c r="E73" s="8">
         <v>1.6525319999999999</v>
       </c>
-      <c r="F73" s="8"/>
-      <c r="G73" s="8"/>
-      <c r="H73" s="8"/>
-      <c r="I73" s="8"/>
+      <c r="F73" s="7"/>
+      <c r="G73" s="7"/>
+      <c r="H73" s="7"/>
+      <c r="I73" s="7"/>
       <c r="J73" s="5"/>
       <c r="K73" s="5"/>
     </row>
@@ -4018,16 +4078,16 @@
       <c r="C74" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="D74" s="9">
+      <c r="D74" s="8">
         <v>1.31</v>
       </c>
-      <c r="E74" s="9">
+      <c r="E74" s="8">
         <v>1.6659999999999999</v>
       </c>
-      <c r="F74" s="8"/>
-      <c r="G74" s="8"/>
-      <c r="H74" s="8"/>
-      <c r="I74" s="8"/>
+      <c r="F74" s="7"/>
+      <c r="G74" s="7"/>
+      <c r="H74" s="7"/>
+      <c r="I74" s="7"/>
       <c r="J74" s="5"/>
       <c r="K74" s="5"/>
     </row>
@@ -4042,18 +4102,18 @@
       <c r="C75" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="D75" s="9">
+      <c r="D75" s="8">
         <v>0.69359999999999999</v>
       </c>
-      <c r="E75" s="9">
+      <c r="E75" s="8">
         <v>1.5618300000000001</v>
       </c>
-      <c r="F75" s="8"/>
-      <c r="G75" s="8" t="s">
+      <c r="F75" s="7"/>
+      <c r="G75" s="7" t="s">
         <v>474</v>
       </c>
-      <c r="H75" s="8"/>
-      <c r="I75" s="8"/>
+      <c r="H75" s="7"/>
+      <c r="I75" s="7"/>
       <c r="J75" s="5"/>
       <c r="K75" s="5"/>
     </row>
@@ -4068,16 +4128,16 @@
       <c r="C76" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="D76" s="9">
+      <c r="D76" s="8">
         <v>123.33</v>
       </c>
-      <c r="E76" s="9">
+      <c r="E76" s="8">
         <v>1.488364</v>
       </c>
-      <c r="F76" s="8"/>
-      <c r="G76" s="8"/>
-      <c r="H76" s="8"/>
-      <c r="I76" s="8"/>
+      <c r="F76" s="7"/>
+      <c r="G76" s="7"/>
+      <c r="H76" s="7"/>
+      <c r="I76" s="7"/>
       <c r="J76" s="5"/>
       <c r="K76" s="5"/>
     </row>
@@ -4092,18 +4152,18 @@
       <c r="C77" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="D77" s="9">
+      <c r="D77" s="8">
         <v>10.71</v>
       </c>
-      <c r="E77" s="9">
+      <c r="E77" s="8">
         <v>1.48</v>
       </c>
-      <c r="F77" s="8"/>
-      <c r="G77" s="8" t="s">
+      <c r="F77" s="7"/>
+      <c r="G77" s="7" t="s">
         <v>475</v>
       </c>
-      <c r="H77" s="8"/>
-      <c r="I77" s="8"/>
+      <c r="H77" s="7"/>
+      <c r="I77" s="7"/>
       <c r="J77" s="5"/>
       <c r="K77" s="5"/>
     </row>
@@ -4118,18 +4178,18 @@
       <c r="C78" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="D78" s="9">
+      <c r="D78" s="8">
         <v>0.78859999999999997</v>
       </c>
-      <c r="E78" s="9">
+      <c r="E78" s="8">
         <v>1.4628623110000001</v>
       </c>
-      <c r="F78" s="8"/>
-      <c r="G78" s="8" t="s">
+      <c r="F78" s="7"/>
+      <c r="G78" s="7" t="s">
         <v>475</v>
       </c>
-      <c r="H78" s="8"/>
-      <c r="I78" s="8"/>
+      <c r="H78" s="7"/>
+      <c r="I78" s="7"/>
       <c r="J78" s="5"/>
       <c r="K78" s="5"/>
     </row>
@@ -4144,18 +4204,18 @@
       <c r="C79" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="D79" s="9">
+      <c r="D79" s="8">
         <v>15.19</v>
       </c>
-      <c r="E79" s="9">
+      <c r="E79" s="8">
         <v>1.462977</v>
       </c>
-      <c r="F79" s="8"/>
-      <c r="G79" s="8" t="s">
+      <c r="F79" s="7"/>
+      <c r="G79" s="7" t="s">
         <v>469</v>
       </c>
-      <c r="H79" s="8"/>
-      <c r="I79" s="8"/>
+      <c r="H79" s="7"/>
+      <c r="I79" s="7"/>
       <c r="J79" s="5"/>
       <c r="K79" s="5"/>
     </row>
@@ -4170,18 +4230,18 @@
       <c r="C80" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="D80" s="9">
+      <c r="D80" s="8">
         <v>2.2200000000000002</v>
       </c>
-      <c r="E80" s="9">
+      <c r="E80" s="8">
         <v>1.3569290000000001</v>
       </c>
-      <c r="F80" s="8"/>
-      <c r="G80" s="8" t="s">
+      <c r="F80" s="7"/>
+      <c r="G80" s="7" t="s">
         <v>475</v>
       </c>
-      <c r="H80" s="8"/>
-      <c r="I80" s="8"/>
+      <c r="H80" s="7"/>
+      <c r="I80" s="7"/>
       <c r="J80" s="5"/>
       <c r="K80" s="5"/>
     </row>
@@ -4190,22 +4250,22 @@
         <f t="shared" si="2"/>
         <v>53</v>
       </c>
-      <c r="B81" s="13" t="s">
+      <c r="B81" s="12" t="s">
         <v>149</v>
       </c>
       <c r="C81" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="D81" s="9">
+      <c r="D81" s="8">
         <v>0.57340000000000002</v>
       </c>
-      <c r="E81" s="9">
+      <c r="E81" s="8">
         <v>1.1986702490000001</v>
       </c>
-      <c r="F81" s="8"/>
-      <c r="G81" s="8"/>
-      <c r="H81" s="8"/>
-      <c r="I81" s="8"/>
+      <c r="F81" s="7"/>
+      <c r="G81" s="7"/>
+      <c r="H81" s="7"/>
+      <c r="I81" s="7"/>
       <c r="J81" s="5"/>
       <c r="K81" s="5"/>
     </row>
@@ -4220,16 +4280,16 @@
       <c r="C82" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="D82" s="9">
+      <c r="D82" s="8">
         <v>1.45</v>
       </c>
-      <c r="E82" s="9">
+      <c r="E82" s="8">
         <v>1.414088813</v>
       </c>
-      <c r="F82" s="8"/>
-      <c r="G82" s="8"/>
-      <c r="H82" s="8"/>
-      <c r="I82" s="8"/>
+      <c r="F82" s="7"/>
+      <c r="G82" s="7"/>
+      <c r="H82" s="7"/>
+      <c r="I82" s="7"/>
       <c r="J82" s="5"/>
       <c r="K82" s="5"/>
     </row>
@@ -4244,16 +4304,16 @@
       <c r="C83" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="D83" s="18">
+      <c r="D83" s="17">
         <v>7.2589999999999994E-5</v>
       </c>
-      <c r="E83" s="9">
+      <c r="E83" s="8">
         <v>1.4269419999999999</v>
       </c>
-      <c r="F83" s="8"/>
-      <c r="G83" s="8"/>
-      <c r="H83" s="8"/>
-      <c r="I83" s="8"/>
+      <c r="F83" s="7"/>
+      <c r="G83" s="7"/>
+      <c r="H83" s="7"/>
+      <c r="I83" s="7"/>
       <c r="J83" s="5"/>
       <c r="K83" s="5"/>
     </row>
@@ -4268,16 +4328,16 @@
       <c r="C84" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="D84" s="9">
+      <c r="D84" s="8">
         <v>1.1000000000000001</v>
       </c>
-      <c r="E84" s="9">
+      <c r="E84" s="8">
         <v>1.1945250000000001</v>
       </c>
-      <c r="F84" s="8"/>
-      <c r="G84" s="8"/>
-      <c r="H84" s="8"/>
-      <c r="I84" s="8"/>
+      <c r="F84" s="7"/>
+      <c r="G84" s="7"/>
+      <c r="H84" s="7"/>
+      <c r="I84" s="7"/>
       <c r="J84" s="5"/>
       <c r="K84" s="5"/>
     </row>
@@ -4292,16 +4352,16 @@
       <c r="C85" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="D85" s="9">
+      <c r="D85" s="8">
         <v>1.9570000000000001E-4</v>
       </c>
-      <c r="E85" s="9">
+      <c r="E85" s="8">
         <v>1.139</v>
       </c>
-      <c r="F85" s="8"/>
-      <c r="G85" s="8"/>
-      <c r="H85" s="8"/>
-      <c r="I85" s="8"/>
+      <c r="F85" s="7"/>
+      <c r="G85" s="7"/>
+      <c r="H85" s="7"/>
+      <c r="I85" s="7"/>
       <c r="J85" s="5"/>
       <c r="K85" s="5"/>
     </row>
@@ -4316,18 +4376,18 @@
       <c r="C86" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="D86" s="9">
+      <c r="D86" s="8">
         <v>1</v>
       </c>
-      <c r="E86" s="9">
+      <c r="E86" s="8">
         <v>0.94432756500000004</v>
       </c>
-      <c r="F86" s="8"/>
-      <c r="G86" s="8" t="s">
+      <c r="F86" s="7"/>
+      <c r="G86" s="7" t="s">
         <v>463</v>
       </c>
-      <c r="H86" s="8"/>
-      <c r="I86" s="8"/>
+      <c r="H86" s="7"/>
+      <c r="I86" s="7"/>
       <c r="J86" s="5"/>
       <c r="K86" s="5"/>
     </row>
@@ -4342,16 +4402,16 @@
       <c r="C87" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="D87" s="18">
+      <c r="D87" s="17">
         <v>0.1389</v>
       </c>
-      <c r="E87" s="9">
+      <c r="E87" s="8">
         <v>0.92534499999999997</v>
       </c>
-      <c r="F87" s="8"/>
-      <c r="G87" s="8"/>
-      <c r="H87" s="8"/>
-      <c r="I87" s="8"/>
+      <c r="F87" s="7"/>
+      <c r="G87" s="7"/>
+      <c r="H87" s="7"/>
+      <c r="I87" s="7"/>
       <c r="J87" s="5"/>
       <c r="K87" s="5"/>
     </row>
@@ -4366,18 +4426,18 @@
       <c r="C88" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="D88" s="9">
+      <c r="D88" s="8">
         <v>1</v>
       </c>
-      <c r="E88" s="9">
+      <c r="E88" s="8">
         <v>0.87904899999999997</v>
       </c>
-      <c r="F88" s="8"/>
-      <c r="G88" s="8" t="s">
+      <c r="F88" s="7"/>
+      <c r="G88" s="7" t="s">
         <v>463</v>
       </c>
-      <c r="H88" s="8"/>
-      <c r="I88" s="8"/>
+      <c r="H88" s="7"/>
+      <c r="I88" s="7"/>
       <c r="J88" s="5"/>
       <c r="K88" s="5"/>
     </row>
@@ -4392,18 +4452,18 @@
       <c r="C89" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="D89" s="9">
+      <c r="D89" s="8">
         <v>34.99</v>
       </c>
-      <c r="E89" s="9">
+      <c r="E89" s="8">
         <v>0.57188935200000002</v>
       </c>
-      <c r="F89" s="8"/>
-      <c r="G89" s="8" t="s">
+      <c r="F89" s="7"/>
+      <c r="G89" s="7" t="s">
         <v>470</v>
       </c>
-      <c r="H89" s="8"/>
-      <c r="I89" s="8"/>
+      <c r="H89" s="7"/>
+      <c r="I89" s="7"/>
       <c r="J89" s="5"/>
       <c r="K89" s="5"/>
     </row>
@@ -4418,16 +4478,16 @@
       <c r="C90" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="D90" s="9">
+      <c r="D90" s="8">
         <v>68.849999999999994</v>
       </c>
-      <c r="E90" s="9">
+      <c r="E90" s="8">
         <v>1.2050000000000001</v>
       </c>
-      <c r="F90" s="8"/>
-      <c r="G90" s="8"/>
-      <c r="H90" s="8"/>
-      <c r="I90" s="8"/>
+      <c r="F90" s="7"/>
+      <c r="G90" s="7"/>
+      <c r="H90" s="7"/>
+      <c r="I90" s="7"/>
       <c r="J90" s="5"/>
       <c r="K90" s="5"/>
     </row>
@@ -4442,16 +4502,16 @@
       <c r="C91" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="D91" s="9">
+      <c r="D91" s="8">
         <v>2.44</v>
       </c>
-      <c r="E91" s="9">
+      <c r="E91" s="8">
         <v>0.80100000000000005</v>
       </c>
-      <c r="F91" s="8"/>
-      <c r="G91" s="8"/>
-      <c r="H91" s="8"/>
-      <c r="I91" s="8"/>
+      <c r="F91" s="7"/>
+      <c r="G91" s="7"/>
+      <c r="H91" s="7"/>
+      <c r="I91" s="7"/>
       <c r="J91" s="5"/>
       <c r="K91" s="5"/>
     </row>
@@ -4466,16 +4526,16 @@
       <c r="C92" s="5" t="s">
         <v>170</v>
       </c>
-      <c r="D92" s="9">
+      <c r="D92" s="8">
         <v>0.9929</v>
       </c>
-      <c r="E92" s="9">
+      <c r="E92" s="8">
         <v>0.72014599999999995</v>
       </c>
-      <c r="F92" s="8"/>
-      <c r="G92" s="8"/>
-      <c r="H92" s="8"/>
-      <c r="I92" s="8"/>
+      <c r="F92" s="7"/>
+      <c r="G92" s="7"/>
+      <c r="H92" s="7"/>
+      <c r="I92" s="7"/>
       <c r="J92" s="5"/>
       <c r="K92" s="5"/>
     </row>
@@ -4490,16 +4550,16 @@
       <c r="C93" s="5" t="s">
         <v>172</v>
       </c>
-      <c r="D93" s="9">
+      <c r="D93" s="8">
         <v>0.25800000000000001</v>
       </c>
-      <c r="E93" s="9">
+      <c r="E93" s="8">
         <v>0.66539700000000002</v>
       </c>
-      <c r="F93" s="8"/>
-      <c r="G93" s="8"/>
-      <c r="H93" s="8"/>
-      <c r="I93" s="8"/>
+      <c r="F93" s="7"/>
+      <c r="G93" s="7"/>
+      <c r="H93" s="7"/>
+      <c r="I93" s="7"/>
       <c r="J93" s="5"/>
       <c r="K93" s="5"/>
     </row>
@@ -4514,16 +4574,16 @@
       <c r="C94" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="D94" s="9">
+      <c r="D94" s="8">
         <v>5.1100000000000003</v>
       </c>
-      <c r="E94" s="9">
+      <c r="E94" s="8">
         <v>0.82979899999999995</v>
       </c>
-      <c r="F94" s="8"/>
-      <c r="G94" s="8"/>
-      <c r="H94" s="8"/>
-      <c r="I94" s="8"/>
+      <c r="F94" s="7"/>
+      <c r="G94" s="7"/>
+      <c r="H94" s="7"/>
+      <c r="I94" s="7"/>
       <c r="J94" s="5"/>
       <c r="K94" s="5"/>
     </row>
@@ -4538,16 +4598,16 @@
       <c r="C95" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="D95" s="18">
+      <c r="D95" s="17">
         <v>0.33350000000000002</v>
       </c>
-      <c r="E95" s="9">
+      <c r="E95" s="8">
         <v>0.22685149199999999</v>
       </c>
-      <c r="F95" s="8"/>
-      <c r="G95" s="8"/>
-      <c r="H95" s="8"/>
-      <c r="I95" s="8"/>
+      <c r="F95" s="7"/>
+      <c r="G95" s="7"/>
+      <c r="H95" s="7"/>
+      <c r="I95" s="7"/>
       <c r="J95" s="5"/>
       <c r="K95" s="5"/>
     </row>
@@ -4562,16 +4622,16 @@
       <c r="C96" s="5" t="s">
         <v>178</v>
       </c>
-      <c r="D96" s="9">
+      <c r="D96" s="8">
         <v>3.61</v>
       </c>
-      <c r="E96" s="9">
+      <c r="E96" s="8">
         <v>0.87511399999999995</v>
       </c>
-      <c r="F96" s="8"/>
-      <c r="G96" s="8"/>
-      <c r="H96" s="8"/>
-      <c r="I96" s="8"/>
+      <c r="F96" s="7"/>
+      <c r="G96" s="7"/>
+      <c r="H96" s="7"/>
+      <c r="I96" s="7"/>
       <c r="J96" s="5"/>
       <c r="K96" s="5"/>
     </row>
@@ -4586,16 +4646,16 @@
       <c r="C97" s="5" t="s">
         <v>180</v>
       </c>
-      <c r="D97" s="9">
+      <c r="D97" s="8">
         <v>0.20610000000000001</v>
       </c>
-      <c r="E97" s="9">
+      <c r="E97" s="8">
         <v>0.63667726499999999</v>
       </c>
-      <c r="F97" s="8"/>
-      <c r="G97" s="8"/>
-      <c r="H97" s="8"/>
-      <c r="I97" s="8"/>
+      <c r="F97" s="7"/>
+      <c r="G97" s="7"/>
+      <c r="H97" s="7"/>
+      <c r="I97" s="7"/>
       <c r="J97" s="5"/>
       <c r="K97" s="5"/>
     </row>
@@ -4610,16 +4670,16 @@
       <c r="C98" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="D98" s="9">
+      <c r="D98" s="8">
         <v>2.44</v>
       </c>
-      <c r="E98" s="9">
+      <c r="E98" s="8">
         <v>0.61030981299999998</v>
       </c>
-      <c r="F98" s="8"/>
-      <c r="G98" s="8"/>
-      <c r="H98" s="8"/>
-      <c r="I98" s="8"/>
+      <c r="F98" s="7"/>
+      <c r="G98" s="7"/>
+      <c r="H98" s="7"/>
+      <c r="I98" s="7"/>
       <c r="J98" s="5"/>
       <c r="K98" s="5"/>
     </row>
@@ -4634,16 +4694,16 @@
       <c r="C99" s="5" t="s">
         <v>184</v>
       </c>
-      <c r="D99" s="9">
+      <c r="D99" s="8">
         <v>17.440000000000001</v>
       </c>
-      <c r="E99" s="9">
+      <c r="E99" s="8">
         <v>1.2310000000000001</v>
       </c>
-      <c r="F99" s="8"/>
-      <c r="G99" s="8"/>
-      <c r="H99" s="8"/>
-      <c r="I99" s="8"/>
+      <c r="F99" s="7"/>
+      <c r="G99" s="7"/>
+      <c r="H99" s="7"/>
+      <c r="I99" s="7"/>
       <c r="J99" s="5"/>
       <c r="K99" s="5"/>
     </row>
@@ -4658,16 +4718,16 @@
       <c r="C100" s="5" t="s">
         <v>186</v>
       </c>
-      <c r="D100" s="9">
+      <c r="D100" s="8">
         <v>8.99</v>
       </c>
-      <c r="E100" s="9">
+      <c r="E100" s="8">
         <v>1.446615</v>
       </c>
-      <c r="F100" s="8"/>
-      <c r="G100" s="8"/>
-      <c r="H100" s="8"/>
-      <c r="I100" s="8"/>
+      <c r="F100" s="7"/>
+      <c r="G100" s="7"/>
+      <c r="H100" s="7"/>
+      <c r="I100" s="7"/>
       <c r="J100" s="5"/>
       <c r="K100" s="5"/>
     </row>
@@ -4682,16 +4742,16 @@
       <c r="C101" s="5" t="s">
         <v>188</v>
       </c>
-      <c r="D101" s="9">
+      <c r="D101" s="8">
         <v>9.08</v>
       </c>
-      <c r="E101" s="9">
+      <c r="E101" s="8">
         <v>1.345</v>
       </c>
-      <c r="F101" s="8"/>
-      <c r="G101" s="8"/>
-      <c r="H101" s="8"/>
-      <c r="I101" s="8"/>
+      <c r="F101" s="7"/>
+      <c r="G101" s="7"/>
+      <c r="H101" s="7"/>
+      <c r="I101" s="7"/>
       <c r="J101" s="5"/>
       <c r="K101" s="5"/>
     </row>
@@ -4706,16 +4766,16 @@
       <c r="C102" s="5" t="s">
         <v>190</v>
       </c>
-      <c r="D102" s="9">
+      <c r="D102" s="8">
         <v>0.85350000000000004</v>
       </c>
-      <c r="E102" s="9">
+      <c r="E102" s="8">
         <v>1.194</v>
       </c>
-      <c r="F102" s="8"/>
-      <c r="G102" s="8"/>
-      <c r="H102" s="8"/>
-      <c r="I102" s="8"/>
+      <c r="F102" s="7"/>
+      <c r="G102" s="7"/>
+      <c r="H102" s="7"/>
+      <c r="I102" s="7"/>
       <c r="J102" s="5"/>
       <c r="K102" s="5"/>
     </row>
@@ -4730,16 +4790,16 @@
       <c r="C103" s="5" t="s">
         <v>192</v>
       </c>
-      <c r="D103" s="9">
+      <c r="D103" s="8">
         <v>0.59360000000000002</v>
       </c>
-      <c r="E103" s="9">
+      <c r="E103" s="8">
         <v>1.0895980000000001</v>
       </c>
-      <c r="F103" s="8"/>
-      <c r="G103" s="8"/>
-      <c r="H103" s="8"/>
-      <c r="I103" s="8"/>
+      <c r="F103" s="7"/>
+      <c r="G103" s="7"/>
+      <c r="H103" s="7"/>
+      <c r="I103" s="7"/>
       <c r="J103" s="5"/>
       <c r="K103" s="5"/>
     </row>
@@ -4754,16 +4814,16 @@
       <c r="C104" s="5" t="s">
         <v>194</v>
       </c>
-      <c r="D104" s="9">
+      <c r="D104" s="8">
         <v>3.5189999999999999E-2</v>
       </c>
-      <c r="E104" s="9">
+      <c r="E104" s="8">
         <v>0.61134288400000003</v>
       </c>
-      <c r="F104" s="8"/>
-      <c r="G104" s="8"/>
-      <c r="H104" s="8"/>
-      <c r="I104" s="8"/>
+      <c r="F104" s="7"/>
+      <c r="G104" s="7"/>
+      <c r="H104" s="7"/>
+      <c r="I104" s="7"/>
       <c r="J104" s="5"/>
       <c r="K104" s="5"/>
     </row>
@@ -4778,16 +4838,16 @@
       <c r="C105" s="5" t="s">
         <v>196</v>
       </c>
-      <c r="D105" s="9">
+      <c r="D105" s="8">
         <v>1659.87</v>
       </c>
-      <c r="E105" s="9">
+      <c r="E105" s="8">
         <v>0.53980675300000003</v>
       </c>
-      <c r="F105" s="8"/>
-      <c r="G105" s="8"/>
-      <c r="H105" s="8"/>
-      <c r="I105" s="8"/>
+      <c r="F105" s="7"/>
+      <c r="G105" s="7"/>
+      <c r="H105" s="7"/>
+      <c r="I105" s="7"/>
       <c r="J105" s="5"/>
       <c r="K105" s="5"/>
     </row>
@@ -4802,16 +4862,16 @@
       <c r="C106" s="5" t="s">
         <v>198</v>
       </c>
-      <c r="D106" s="9">
+      <c r="D106" s="8">
         <v>0.96040000000000003</v>
       </c>
-      <c r="E106" s="9">
+      <c r="E106" s="8">
         <v>0.51052593199999996</v>
       </c>
-      <c r="F106" s="8"/>
-      <c r="G106" s="8"/>
-      <c r="H106" s="8"/>
-      <c r="I106" s="8"/>
+      <c r="F106" s="7"/>
+      <c r="G106" s="7"/>
+      <c r="H106" s="7"/>
+      <c r="I106" s="7"/>
       <c r="J106" s="5"/>
       <c r="K106" s="5"/>
     </row>
@@ -4826,16 +4886,16 @@
       <c r="C107" s="5" t="s">
         <v>200</v>
       </c>
-      <c r="D107" s="9">
+      <c r="D107" s="8">
         <v>0.89059999999999995</v>
       </c>
-      <c r="E107" s="9">
+      <c r="E107" s="8">
         <v>0.498732234</v>
       </c>
-      <c r="F107" s="8"/>
-      <c r="G107" s="8"/>
-      <c r="H107" s="8"/>
-      <c r="I107" s="8"/>
+      <c r="F107" s="7"/>
+      <c r="G107" s="7"/>
+      <c r="H107" s="7"/>
+      <c r="I107" s="7"/>
       <c r="J107" s="5"/>
       <c r="K107" s="5"/>
     </row>
@@ -4850,16 +4910,16 @@
       <c r="C108" s="5" t="s">
         <v>202</v>
       </c>
-      <c r="D108" s="9">
+      <c r="D108" s="8">
         <v>0.4798</v>
       </c>
-      <c r="E108" s="9">
+      <c r="E108" s="8">
         <v>0.47984337799999999</v>
       </c>
-      <c r="F108" s="8"/>
-      <c r="G108" s="8"/>
-      <c r="H108" s="8"/>
-      <c r="I108" s="8"/>
+      <c r="F108" s="7"/>
+      <c r="G108" s="7"/>
+      <c r="H108" s="7"/>
+      <c r="I108" s="7"/>
       <c r="J108" s="5"/>
       <c r="K108" s="5"/>
     </row>
@@ -4874,16 +4934,16 @@
       <c r="C109" s="5" t="s">
         <v>204</v>
       </c>
-      <c r="D109" s="9">
+      <c r="D109" s="8">
         <v>0.3014</v>
       </c>
-      <c r="E109" s="9">
+      <c r="E109" s="8">
         <v>0.45076466500000001</v>
       </c>
-      <c r="F109" s="8"/>
-      <c r="G109" s="8"/>
-      <c r="H109" s="8"/>
-      <c r="I109" s="8"/>
+      <c r="F109" s="7"/>
+      <c r="G109" s="7"/>
+      <c r="H109" s="7"/>
+      <c r="I109" s="7"/>
       <c r="J109" s="5"/>
       <c r="K109" s="5"/>
     </row>
@@ -4898,16 +4958,16 @@
       <c r="C110" s="5" t="s">
         <v>206</v>
       </c>
-      <c r="D110" s="9">
+      <c r="D110" s="8">
         <v>4.1500000000000004</v>
       </c>
-      <c r="E110" s="9">
+      <c r="E110" s="8">
         <v>0.44902305300000001</v>
       </c>
-      <c r="F110" s="8"/>
-      <c r="G110" s="8"/>
-      <c r="H110" s="8"/>
-      <c r="I110" s="8"/>
+      <c r="F110" s="7"/>
+      <c r="G110" s="7"/>
+      <c r="H110" s="7"/>
+      <c r="I110" s="7"/>
       <c r="J110" s="5"/>
       <c r="K110" s="5"/>
     </row>
@@ -4922,16 +4982,16 @@
       <c r="C111" s="5" t="s">
         <v>208</v>
       </c>
-      <c r="D111" s="9">
+      <c r="D111" s="8">
         <v>40.61</v>
       </c>
-      <c r="E111" s="9">
+      <c r="E111" s="8">
         <v>0.44337546999999999</v>
       </c>
-      <c r="F111" s="8"/>
-      <c r="G111" s="8"/>
-      <c r="H111" s="8"/>
-      <c r="I111" s="8"/>
+      <c r="F111" s="7"/>
+      <c r="G111" s="7"/>
+      <c r="H111" s="7"/>
+      <c r="I111" s="7"/>
       <c r="J111" s="5"/>
       <c r="K111" s="5"/>
     </row>
@@ -4946,16 +5006,16 @@
       <c r="C112" s="5" t="s">
         <v>210</v>
       </c>
-      <c r="D112" s="9">
+      <c r="D112" s="8">
         <v>0.98819999999999997</v>
       </c>
-      <c r="E112" s="9">
+      <c r="E112" s="8">
         <v>0.41965282799999998</v>
       </c>
-      <c r="F112" s="8"/>
-      <c r="G112" s="8"/>
-      <c r="H112" s="8"/>
-      <c r="I112" s="8"/>
+      <c r="F112" s="7"/>
+      <c r="G112" s="7"/>
+      <c r="H112" s="7"/>
+      <c r="I112" s="7"/>
       <c r="J112" s="5"/>
       <c r="K112" s="5"/>
     </row>
@@ -4970,16 +5030,16 @@
       <c r="C113" s="5" t="s">
         <v>212</v>
       </c>
-      <c r="D113" s="9">
+      <c r="D113" s="8">
         <v>3.94</v>
       </c>
-      <c r="E113" s="9">
+      <c r="E113" s="8">
         <v>0.43095742300000001</v>
       </c>
-      <c r="F113" s="8"/>
-      <c r="G113" s="8"/>
-      <c r="H113" s="8"/>
-      <c r="I113" s="8"/>
+      <c r="F113" s="7"/>
+      <c r="G113" s="7"/>
+      <c r="H113" s="7"/>
+      <c r="I113" s="7"/>
       <c r="J113" s="5"/>
       <c r="K113" s="5"/>
     </row>
@@ -4994,16 +5054,16 @@
       <c r="C114" s="5" t="s">
         <v>214</v>
       </c>
-      <c r="D114" s="9">
+      <c r="D114" s="8">
         <v>3.9759999999999997E-2</v>
       </c>
-      <c r="E114" s="9">
+      <c r="E114" s="8">
         <v>0.41637566399999998</v>
       </c>
-      <c r="F114" s="8"/>
-      <c r="G114" s="8"/>
-      <c r="H114" s="8"/>
-      <c r="I114" s="8"/>
+      <c r="F114" s="7"/>
+      <c r="G114" s="7"/>
+      <c r="H114" s="7"/>
+      <c r="I114" s="7"/>
       <c r="J114" s="5"/>
       <c r="K114" s="5"/>
     </row>
@@ -5018,16 +5078,16 @@
       <c r="C115" s="5" t="s">
         <v>216</v>
       </c>
-      <c r="D115" s="9">
+      <c r="D115" s="8">
         <v>0.30320000000000003</v>
       </c>
-      <c r="E115" s="9">
+      <c r="E115" s="8">
         <v>0.40336259400000002</v>
       </c>
-      <c r="F115" s="8"/>
-      <c r="G115" s="8"/>
-      <c r="H115" s="8"/>
-      <c r="I115" s="8"/>
+      <c r="F115" s="7"/>
+      <c r="G115" s="7"/>
+      <c r="H115" s="7"/>
+      <c r="I115" s="7"/>
       <c r="J115" s="5"/>
       <c r="K115" s="5"/>
     </row>
@@ -5042,16 +5102,16 @@
       <c r="C116" s="5" t="s">
         <v>218</v>
       </c>
-      <c r="D116" s="9">
+      <c r="D116" s="8">
         <v>55.07</v>
       </c>
-      <c r="E116" s="9">
+      <c r="E116" s="8">
         <v>0.400227634</v>
       </c>
-      <c r="F116" s="8"/>
-      <c r="G116" s="8"/>
-      <c r="H116" s="8"/>
-      <c r="I116" s="8"/>
+      <c r="F116" s="7"/>
+      <c r="G116" s="7"/>
+      <c r="H116" s="7"/>
+      <c r="I116" s="7"/>
       <c r="J116" s="5"/>
       <c r="K116" s="5"/>
     </row>
@@ -5066,19 +5126,19 @@
       <c r="C117" s="5" t="s">
         <v>220</v>
       </c>
-      <c r="D117" s="9">
+      <c r="D117" s="8">
         <f>+D5</f>
         <v>103880</v>
       </c>
-      <c r="E117" s="9">
+      <c r="E117" s="8">
         <v>4.1390000000000002</v>
       </c>
-      <c r="F117" s="8"/>
-      <c r="G117" s="8" t="s">
+      <c r="F117" s="7"/>
+      <c r="G117" s="7" t="s">
         <v>476</v>
       </c>
-      <c r="H117" s="8"/>
-      <c r="I117" s="8"/>
+      <c r="H117" s="7"/>
+      <c r="I117" s="7"/>
       <c r="J117" s="5"/>
       <c r="K117" s="5"/>
     </row>
@@ -5093,16 +5153,16 @@
       <c r="C118" s="5" t="s">
         <v>222</v>
       </c>
-      <c r="D118" s="9">
+      <c r="D118" s="8">
         <v>1.32</v>
       </c>
-      <c r="E118" s="9">
+      <c r="E118" s="8">
         <v>1.41</v>
       </c>
-      <c r="F118" s="8"/>
-      <c r="G118" s="8"/>
-      <c r="H118" s="8"/>
-      <c r="I118" s="8"/>
+      <c r="F118" s="7"/>
+      <c r="G118" s="7"/>
+      <c r="H118" s="7"/>
+      <c r="I118" s="7"/>
       <c r="J118" s="5"/>
       <c r="K118" s="5"/>
     </row>
@@ -5117,16 +5177,16 @@
       <c r="C119" s="5" t="s">
         <v>224</v>
       </c>
-      <c r="D119" s="9">
+      <c r="D119" s="8">
         <v>0.91539999999999999</v>
       </c>
-      <c r="E119" s="9">
+      <c r="E119" s="8">
         <v>0.38138114899999997</v>
       </c>
-      <c r="F119" s="8"/>
-      <c r="G119" s="8"/>
-      <c r="H119" s="8"/>
-      <c r="I119" s="8"/>
+      <c r="F119" s="7"/>
+      <c r="G119" s="7"/>
+      <c r="H119" s="7"/>
+      <c r="I119" s="7"/>
       <c r="J119" s="5"/>
       <c r="K119" s="5"/>
     </row>
@@ -5141,16 +5201,16 @@
       <c r="C120" s="5" t="s">
         <v>226</v>
       </c>
-      <c r="D120" s="9">
+      <c r="D120" s="8">
         <v>1.03</v>
       </c>
-      <c r="E120" s="9">
+      <c r="E120" s="8">
         <v>1.115</v>
       </c>
-      <c r="F120" s="8"/>
-      <c r="G120" s="8"/>
-      <c r="H120" s="8"/>
-      <c r="I120" s="8"/>
+      <c r="F120" s="7"/>
+      <c r="G120" s="7"/>
+      <c r="H120" s="7"/>
+      <c r="I120" s="7"/>
       <c r="J120" s="5"/>
       <c r="K120" s="5"/>
     </row>
@@ -5165,16 +5225,16 @@
       <c r="C121" s="5" t="s">
         <v>228</v>
       </c>
-      <c r="D121" s="9">
+      <c r="D121" s="8">
         <v>1.1499999999999999</v>
       </c>
-      <c r="E121" s="9">
+      <c r="E121" s="8">
         <v>0.78465099999999999</v>
       </c>
-      <c r="F121" s="8"/>
-      <c r="G121" s="8"/>
-      <c r="H121" s="8"/>
-      <c r="I121" s="8"/>
+      <c r="F121" s="7"/>
+      <c r="G121" s="7"/>
+      <c r="H121" s="7"/>
+      <c r="I121" s="7"/>
       <c r="J121" s="5"/>
       <c r="K121" s="5"/>
     </row>
@@ -5189,16 +5249,16 @@
       <c r="C122" s="5" t="s">
         <v>230</v>
       </c>
-      <c r="D122" s="9">
+      <c r="D122" s="8">
         <v>0.61719999999999997</v>
       </c>
-      <c r="E122" s="9">
+      <c r="E122" s="8">
         <v>0.37034398000000002</v>
       </c>
-      <c r="F122" s="8"/>
-      <c r="G122" s="8"/>
-      <c r="H122" s="8"/>
-      <c r="I122" s="8"/>
+      <c r="F122" s="7"/>
+      <c r="G122" s="7"/>
+      <c r="H122" s="7"/>
+      <c r="I122" s="7"/>
       <c r="J122" s="5"/>
       <c r="K122" s="5"/>
     </row>
@@ -5213,16 +5273,16 @@
       <c r="C123" s="5" t="s">
         <v>232</v>
       </c>
-      <c r="D123" s="9">
+      <c r="D123" s="8">
         <v>4.0009999999999997E-2</v>
       </c>
-      <c r="E123" s="9">
+      <c r="E123" s="8">
         <v>0.36007262400000001</v>
       </c>
-      <c r="F123" s="8"/>
-      <c r="G123" s="8"/>
-      <c r="H123" s="8"/>
-      <c r="I123" s="8"/>
+      <c r="F123" s="7"/>
+      <c r="G123" s="7"/>
+      <c r="H123" s="7"/>
+      <c r="I123" s="7"/>
       <c r="J123" s="5"/>
       <c r="K123" s="5"/>
     </row>
@@ -5237,16 +5297,16 @@
       <c r="C124" s="5" t="s">
         <v>234</v>
       </c>
-      <c r="D124" s="9">
+      <c r="D124" s="8">
         <v>0.76319999999999999</v>
       </c>
-      <c r="E124" s="9">
+      <c r="E124" s="8">
         <v>0.352850041</v>
       </c>
-      <c r="F124" s="8"/>
-      <c r="G124" s="8"/>
-      <c r="H124" s="8"/>
-      <c r="I124" s="8"/>
+      <c r="F124" s="7"/>
+      <c r="G124" s="7"/>
+      <c r="H124" s="7"/>
+      <c r="I124" s="7"/>
       <c r="J124" s="5"/>
       <c r="K124" s="5"/>
     </row>
@@ -5261,16 +5321,16 @@
       <c r="C125" s="5" t="s">
         <v>236</v>
       </c>
-      <c r="D125" s="9">
+      <c r="D125" s="8">
         <v>1</v>
       </c>
-      <c r="E125" s="9"/>
-      <c r="F125" s="8"/>
-      <c r="G125" s="8" t="s">
+      <c r="E125" s="8"/>
+      <c r="F125" s="7"/>
+      <c r="G125" s="7" t="s">
         <v>463</v>
       </c>
-      <c r="H125" s="8"/>
-      <c r="I125" s="8"/>
+      <c r="H125" s="7"/>
+      <c r="I125" s="7"/>
       <c r="J125" s="5"/>
       <c r="K125" s="5"/>
     </row>
@@ -5285,16 +5345,16 @@
       <c r="C126" s="5" t="s">
         <v>238</v>
       </c>
-      <c r="D126" s="9">
+      <c r="D126" s="8">
         <v>24.52</v>
       </c>
-      <c r="E126" s="9">
+      <c r="E126" s="8">
         <v>0.35219167299999998</v>
       </c>
-      <c r="F126" s="8"/>
-      <c r="G126" s="8"/>
-      <c r="H126" s="8"/>
-      <c r="I126" s="8"/>
+      <c r="F126" s="7"/>
+      <c r="G126" s="7"/>
+      <c r="H126" s="7"/>
+      <c r="I126" s="7"/>
       <c r="J126" s="5"/>
       <c r="K126" s="5"/>
     </row>
@@ -5303,26 +5363,26 @@
         <f t="shared" si="2"/>
         <v>97</v>
       </c>
-      <c r="B127" s="15" t="s">
+      <c r="B127" s="14" t="s">
         <v>239</v>
       </c>
-      <c r="C127" s="15" t="s">
+      <c r="C127" s="14" t="s">
         <v>240</v>
       </c>
-      <c r="D127" s="16">
+      <c r="D127" s="15">
         <v>2.016E-3</v>
       </c>
-      <c r="E127" s="16">
+      <c r="E127" s="15">
         <v>0.34953241899999998</v>
       </c>
-      <c r="F127" s="17"/>
-      <c r="G127" s="17" t="s">
+      <c r="F127" s="16"/>
+      <c r="G127" s="16" t="s">
         <v>477</v>
       </c>
-      <c r="H127" s="17"/>
-      <c r="I127" s="17"/>
-      <c r="J127" s="15"/>
-      <c r="K127" s="15"/>
+      <c r="H127" s="16"/>
+      <c r="I127" s="16"/>
+      <c r="J127" s="14"/>
+      <c r="K127" s="14"/>
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="4">
@@ -5335,16 +5395,16 @@
       <c r="C128" s="5" t="s">
         <v>242</v>
       </c>
-      <c r="D128" s="9">
+      <c r="D128" s="8">
         <v>0.59250000000000003</v>
       </c>
-      <c r="E128" s="9">
+      <c r="E128" s="8">
         <v>0.34624524499999998</v>
       </c>
-      <c r="F128" s="8"/>
-      <c r="G128" s="8"/>
-      <c r="H128" s="8"/>
-      <c r="I128" s="8"/>
+      <c r="F128" s="7"/>
+      <c r="G128" s="7"/>
+      <c r="H128" s="7"/>
+      <c r="I128" s="7"/>
       <c r="J128" s="5"/>
       <c r="K128" s="5"/>
     </row>
@@ -5359,16 +5419,16 @@
       <c r="C129" s="5" t="s">
         <v>244</v>
       </c>
-      <c r="D129" s="9">
+      <c r="D129" s="8">
         <v>3.02</v>
       </c>
-      <c r="E129" s="9">
+      <c r="E129" s="8">
         <v>1.1080000000000001</v>
       </c>
-      <c r="F129" s="8"/>
-      <c r="G129" s="8"/>
-      <c r="H129" s="8"/>
-      <c r="I129" s="8"/>
+      <c r="F129" s="7"/>
+      <c r="G129" s="7"/>
+      <c r="H129" s="7"/>
+      <c r="I129" s="7"/>
       <c r="J129" s="5"/>
       <c r="K129" s="5"/>
     </row>
@@ -5383,16 +5443,16 @@
       <c r="C130" s="5" t="s">
         <v>234</v>
       </c>
-      <c r="D130" s="9">
+      <c r="D130" s="8">
         <v>1.45</v>
       </c>
-      <c r="E130" s="9">
+      <c r="E130" s="8">
         <v>0.34624524499999998</v>
       </c>
-      <c r="F130" s="8"/>
-      <c r="G130" s="8"/>
-      <c r="H130" s="8"/>
-      <c r="I130" s="8"/>
+      <c r="F130" s="7"/>
+      <c r="G130" s="7"/>
+      <c r="H130" s="7"/>
+      <c r="I130" s="7"/>
       <c r="J130" s="5"/>
       <c r="K130" s="5"/>
     </row>
@@ -5407,16 +5467,16 @@
       <c r="C131" s="5" t="s">
         <v>247</v>
       </c>
-      <c r="D131" s="9">
+      <c r="D131" s="8">
         <v>39.799999999999997</v>
       </c>
-      <c r="E131" s="9">
+      <c r="E131" s="8">
         <v>0.337076604</v>
       </c>
-      <c r="F131" s="8"/>
-      <c r="G131" s="8"/>
-      <c r="H131" s="8"/>
-      <c r="I131" s="8"/>
+      <c r="F131" s="7"/>
+      <c r="G131" s="7"/>
+      <c r="H131" s="7"/>
+      <c r="I131" s="7"/>
       <c r="J131" s="5"/>
       <c r="K131" s="5"/>
     </row>
@@ -5425,24 +5485,24 @@
         <f t="shared" si="2"/>
         <v>102</v>
       </c>
-      <c r="B132" s="15" t="s">
+      <c r="B132" s="14" t="s">
         <v>248</v>
       </c>
-      <c r="C132" s="15" t="s">
+      <c r="C132" s="14" t="s">
         <v>249</v>
       </c>
-      <c r="D132" s="16">
+      <c r="D132" s="15">
         <v>423.74</v>
       </c>
-      <c r="E132" s="16">
+      <c r="E132" s="15">
         <v>1.0980000000000001</v>
       </c>
-      <c r="F132" s="17"/>
-      <c r="G132" s="17"/>
-      <c r="H132" s="17"/>
-      <c r="I132" s="17"/>
-      <c r="J132" s="15"/>
-      <c r="K132" s="15"/>
+      <c r="F132" s="16"/>
+      <c r="G132" s="16"/>
+      <c r="H132" s="16"/>
+      <c r="I132" s="16"/>
+      <c r="J132" s="14"/>
+      <c r="K132" s="14"/>
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="4">
@@ -5455,16 +5515,16 @@
       <c r="C133" s="5" t="s">
         <v>251</v>
       </c>
-      <c r="D133" s="9">
+      <c r="D133" s="8">
         <v>5.19</v>
       </c>
-      <c r="E133" s="9">
+      <c r="E133" s="8">
         <v>0.54332366700000001</v>
       </c>
-      <c r="F133" s="8"/>
-      <c r="G133" s="8"/>
-      <c r="H133" s="8"/>
-      <c r="I133" s="8"/>
+      <c r="F133" s="7"/>
+      <c r="G133" s="7"/>
+      <c r="H133" s="7"/>
+      <c r="I133" s="7"/>
       <c r="J133" s="5"/>
       <c r="K133" s="5"/>
     </row>
@@ -5479,16 +5539,16 @@
       <c r="C134" s="5" t="s">
         <v>253</v>
       </c>
-      <c r="D134" s="9">
+      <c r="D134" s="8">
         <v>2.6669999999999999E-2</v>
       </c>
-      <c r="E134" s="9">
+      <c r="E134" s="8">
         <v>0.32811815700000002</v>
       </c>
-      <c r="F134" s="8"/>
-      <c r="G134" s="8"/>
-      <c r="H134" s="8"/>
-      <c r="I134" s="8"/>
+      <c r="F134" s="7"/>
+      <c r="G134" s="7"/>
+      <c r="H134" s="7"/>
+      <c r="I134" s="7"/>
       <c r="J134" s="5"/>
       <c r="K134" s="5"/>
     </row>
@@ -5497,24 +5557,24 @@
         <f t="shared" ref="A135:A198" si="3">A134+1</f>
         <v>105</v>
       </c>
-      <c r="B135" s="15" t="s">
+      <c r="B135" s="14" t="s">
         <v>254</v>
       </c>
-      <c r="C135" s="15" t="s">
+      <c r="C135" s="14" t="s">
         <v>255</v>
       </c>
-      <c r="D135" s="16">
+      <c r="D135" s="15">
         <v>158.65</v>
       </c>
-      <c r="E135" s="16">
+      <c r="E135" s="15">
         <v>0.32093474100000002</v>
       </c>
-      <c r="F135" s="17"/>
-      <c r="G135" s="17"/>
-      <c r="H135" s="17"/>
-      <c r="I135" s="17"/>
-      <c r="J135" s="15"/>
-      <c r="K135" s="15"/>
+      <c r="F135" s="16"/>
+      <c r="G135" s="16"/>
+      <c r="H135" s="16"/>
+      <c r="I135" s="16"/>
+      <c r="J135" s="14"/>
+      <c r="K135" s="14"/>
     </row>
     <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" s="4">
@@ -5527,16 +5587,16 @@
       <c r="C136" s="5" t="s">
         <v>257</v>
       </c>
-      <c r="D136" s="9">
+      <c r="D136" s="8">
         <v>4.74</v>
       </c>
-      <c r="E136" s="9">
+      <c r="E136" s="8">
         <v>0.32049229000000001</v>
       </c>
-      <c r="F136" s="8"/>
-      <c r="G136" s="8"/>
-      <c r="H136" s="8"/>
-      <c r="I136" s="8"/>
+      <c r="F136" s="7"/>
+      <c r="G136" s="7"/>
+      <c r="H136" s="7"/>
+      <c r="I136" s="7"/>
       <c r="J136" s="5"/>
       <c r="K136" s="5"/>
     </row>
@@ -5551,16 +5611,16 @@
       <c r="C137" s="5" t="s">
         <v>259</v>
       </c>
-      <c r="D137" s="9">
+      <c r="D137" s="8">
         <v>3.2379999999999999E-2</v>
       </c>
-      <c r="E137" s="9">
+      <c r="E137" s="8">
         <v>0.31784597999999997</v>
       </c>
-      <c r="F137" s="8"/>
-      <c r="G137" s="8"/>
-      <c r="H137" s="8"/>
-      <c r="I137" s="8"/>
+      <c r="F137" s="7"/>
+      <c r="G137" s="7"/>
+      <c r="H137" s="7"/>
+      <c r="I137" s="7"/>
       <c r="J137" s="5"/>
       <c r="K137" s="5"/>
     </row>
@@ -5575,16 +5635,16 @@
       <c r="C138" s="5" t="s">
         <v>261</v>
       </c>
-      <c r="D138" s="9">
+      <c r="D138" s="8">
         <v>8392.2800000000007</v>
       </c>
-      <c r="E138" s="9">
+      <c r="E138" s="8">
         <v>0.30747406900000002</v>
       </c>
-      <c r="F138" s="8"/>
-      <c r="G138" s="8"/>
-      <c r="H138" s="8"/>
-      <c r="I138" s="8"/>
+      <c r="F138" s="7"/>
+      <c r="G138" s="7"/>
+      <c r="H138" s="7"/>
+      <c r="I138" s="7"/>
       <c r="J138" s="5"/>
       <c r="K138" s="5"/>
     </row>
@@ -5599,16 +5659,16 @@
       <c r="C139" s="5" t="s">
         <v>263</v>
       </c>
-      <c r="D139" s="9">
+      <c r="D139" s="8">
         <v>0.99609999999999999</v>
       </c>
-      <c r="E139" s="9">
+      <c r="E139" s="8">
         <v>0.30000935699999998</v>
       </c>
-      <c r="F139" s="8"/>
-      <c r="G139" s="8"/>
-      <c r="H139" s="8"/>
-      <c r="I139" s="8"/>
+      <c r="F139" s="7"/>
+      <c r="G139" s="7"/>
+      <c r="H139" s="7"/>
+      <c r="I139" s="7"/>
       <c r="J139" s="5"/>
       <c r="K139" s="5"/>
     </row>
@@ -5623,16 +5683,16 @@
       <c r="C140" s="5" t="s">
         <v>265</v>
       </c>
-      <c r="D140" s="9">
+      <c r="D140" s="8">
         <v>4.2099999999999999E-2</v>
       </c>
-      <c r="E140" s="9">
+      <c r="E140" s="8">
         <v>0.29374433599999999</v>
       </c>
-      <c r="F140" s="8"/>
-      <c r="G140" s="8"/>
-      <c r="H140" s="8"/>
-      <c r="I140" s="8"/>
+      <c r="F140" s="7"/>
+      <c r="G140" s="7"/>
+      <c r="H140" s="7"/>
+      <c r="I140" s="7"/>
       <c r="J140" s="5"/>
       <c r="K140" s="5"/>
     </row>
@@ -5647,16 +5707,16 @@
       <c r="C141" s="5" t="s">
         <v>267</v>
       </c>
-      <c r="D141" s="9">
+      <c r="D141" s="8">
         <v>3.0290000000000001E-2</v>
       </c>
-      <c r="E141" s="9">
+      <c r="E141" s="8">
         <v>0.29265611899999999</v>
       </c>
-      <c r="F141" s="8"/>
-      <c r="G141" s="8"/>
-      <c r="H141" s="8"/>
-      <c r="I141" s="8"/>
+      <c r="F141" s="7"/>
+      <c r="G141" s="7"/>
+      <c r="H141" s="7"/>
+      <c r="I141" s="7"/>
       <c r="J141" s="5"/>
       <c r="K141" s="5"/>
     </row>
@@ -5671,16 +5731,16 @@
       <c r="C142" s="5" t="s">
         <v>269</v>
       </c>
-      <c r="D142" s="9">
+      <c r="D142" s="8">
         <v>5.7360000000000001E-2</v>
       </c>
-      <c r="E142" s="9">
+      <c r="E142" s="8">
         <v>0.28834567100000003</v>
       </c>
-      <c r="F142" s="8"/>
-      <c r="G142" s="8"/>
-      <c r="H142" s="8"/>
-      <c r="I142" s="8"/>
+      <c r="F142" s="7"/>
+      <c r="G142" s="7"/>
+      <c r="H142" s="7"/>
+      <c r="I142" s="7"/>
       <c r="J142" s="5"/>
       <c r="K142" s="5"/>
     </row>
@@ -5695,16 +5755,16 @@
       <c r="C143" s="5" t="s">
         <v>271</v>
       </c>
-      <c r="D143" s="9">
+      <c r="D143" s="8">
         <v>1.45</v>
       </c>
-      <c r="E143" s="9">
+      <c r="E143" s="8">
         <v>0.28805449599999999</v>
       </c>
-      <c r="F143" s="8"/>
-      <c r="G143" s="8"/>
-      <c r="H143" s="8"/>
-      <c r="I143" s="8"/>
+      <c r="F143" s="7"/>
+      <c r="G143" s="7"/>
+      <c r="H143" s="7"/>
+      <c r="I143" s="7"/>
       <c r="J143" s="5"/>
       <c r="K143" s="5"/>
     </row>
@@ -5719,18 +5779,18 @@
       <c r="C144" s="5" t="s">
         <v>273</v>
       </c>
-      <c r="D144" s="9">
+      <c r="D144" s="8">
         <v>0.27879999999999999</v>
       </c>
-      <c r="E144" s="9">
+      <c r="E144" s="8">
         <v>0.27881266300000002</v>
       </c>
-      <c r="F144" s="8"/>
-      <c r="G144" s="8" t="s">
+      <c r="F144" s="7"/>
+      <c r="G144" s="7" t="s">
         <v>461</v>
       </c>
-      <c r="H144" s="8"/>
-      <c r="I144" s="8"/>
+      <c r="H144" s="7"/>
+      <c r="I144" s="7"/>
       <c r="J144" s="5"/>
       <c r="K144" s="5"/>
     </row>
@@ -5745,16 +5805,16 @@
       <c r="C145" s="5" t="s">
         <v>275</v>
       </c>
-      <c r="D145" s="9">
+      <c r="D145" s="8">
         <v>5.1619999999999999E-2</v>
       </c>
-      <c r="E145" s="9">
+      <c r="E145" s="8">
         <v>0.27364821299999997</v>
       </c>
-      <c r="F145" s="8"/>
-      <c r="G145" s="8"/>
-      <c r="H145" s="8"/>
-      <c r="I145" s="8"/>
+      <c r="F145" s="7"/>
+      <c r="G145" s="7"/>
+      <c r="H145" s="7"/>
+      <c r="I145" s="7"/>
       <c r="J145" s="5"/>
       <c r="K145" s="5"/>
     </row>
@@ -5769,16 +5829,16 @@
       <c r="C146" s="5" t="s">
         <v>277</v>
       </c>
-      <c r="D146" s="9">
+      <c r="D146" s="8">
         <v>9.1170000000000001E-3</v>
       </c>
-      <c r="E146" s="9">
+      <c r="E146" s="8">
         <v>0.38498529799999998</v>
       </c>
-      <c r="F146" s="8"/>
-      <c r="G146" s="8"/>
-      <c r="H146" s="8"/>
-      <c r="I146" s="8"/>
+      <c r="F146" s="7"/>
+      <c r="G146" s="7"/>
+      <c r="H146" s="7"/>
+      <c r="I146" s="7"/>
       <c r="J146" s="5"/>
       <c r="K146" s="5"/>
     </row>
@@ -5793,16 +5853,16 @@
       <c r="C147" s="5" t="s">
         <v>279</v>
       </c>
-      <c r="D147" s="9">
+      <c r="D147" s="8">
         <v>3.2759999999999997E-2</v>
       </c>
-      <c r="E147" s="9">
+      <c r="E147" s="8">
         <v>0.31274848100000002</v>
       </c>
-      <c r="F147" s="8"/>
-      <c r="G147" s="8"/>
-      <c r="H147" s="8"/>
-      <c r="I147" s="8"/>
+      <c r="F147" s="7"/>
+      <c r="G147" s="7"/>
+      <c r="H147" s="7"/>
+      <c r="I147" s="7"/>
       <c r="J147" s="5"/>
       <c r="K147" s="5"/>
     </row>
@@ -5817,16 +5877,16 @@
       <c r="C148" s="5" t="s">
         <v>281</v>
       </c>
-      <c r="D148" s="9">
+      <c r="D148" s="8">
         <v>5.7919999999999999E-2</v>
       </c>
-      <c r="E148" s="9">
+      <c r="E148" s="8">
         <v>0.30391054899999997</v>
       </c>
-      <c r="F148" s="8"/>
-      <c r="G148" s="8"/>
-      <c r="H148" s="8"/>
-      <c r="I148" s="8"/>
+      <c r="F148" s="7"/>
+      <c r="G148" s="7"/>
+      <c r="H148" s="7"/>
+      <c r="I148" s="7"/>
       <c r="J148" s="5"/>
       <c r="K148" s="5"/>
     </row>
@@ -5841,16 +5901,16 @@
       <c r="C149" s="5" t="s">
         <v>282</v>
       </c>
-      <c r="D149" s="9">
+      <c r="D149" s="8">
         <v>0.31430000000000002</v>
       </c>
-      <c r="E149" s="9">
+      <c r="E149" s="8">
         <v>0.291509511</v>
       </c>
-      <c r="F149" s="8"/>
-      <c r="G149" s="8"/>
-      <c r="H149" s="8"/>
-      <c r="I149" s="8"/>
+      <c r="F149" s="7"/>
+      <c r="G149" s="7"/>
+      <c r="H149" s="7"/>
+      <c r="I149" s="7"/>
       <c r="J149" s="5"/>
       <c r="K149" s="5"/>
     </row>
@@ -5865,16 +5925,16 @@
       <c r="C150" s="5" t="s">
         <v>284</v>
       </c>
-      <c r="D150" s="9">
+      <c r="D150" s="8">
         <v>2.0699999999999998</v>
       </c>
-      <c r="E150" s="9">
+      <c r="E150" s="8">
         <v>0.29080200699999997</v>
       </c>
-      <c r="F150" s="8"/>
-      <c r="G150" s="8"/>
-      <c r="H150" s="8"/>
-      <c r="I150" s="8"/>
+      <c r="F150" s="7"/>
+      <c r="G150" s="7"/>
+      <c r="H150" s="7"/>
+      <c r="I150" s="7"/>
       <c r="J150" s="5"/>
       <c r="K150" s="5"/>
     </row>
@@ -5889,16 +5949,16 @@
       <c r="C151" s="5" t="s">
         <v>286</v>
       </c>
-      <c r="D151" s="9">
+      <c r="D151" s="8">
         <v>2.3400000000000001E-2</v>
       </c>
-      <c r="E151" s="9">
+      <c r="E151" s="8">
         <v>0.28856063999999998</v>
       </c>
-      <c r="F151" s="8"/>
-      <c r="G151" s="8"/>
-      <c r="H151" s="8"/>
-      <c r="I151" s="8"/>
+      <c r="F151" s="7"/>
+      <c r="G151" s="7"/>
+      <c r="H151" s="7"/>
+      <c r="I151" s="7"/>
       <c r="J151" s="5"/>
       <c r="K151" s="5"/>
     </row>
@@ -5913,16 +5973,16 @@
       <c r="C152" s="5" t="s">
         <v>288</v>
       </c>
-      <c r="D152" s="9">
+      <c r="D152" s="8">
         <v>3.041E-2</v>
       </c>
-      <c r="E152" s="9">
+      <c r="E152" s="8">
         <v>0.27075048800000001</v>
       </c>
-      <c r="F152" s="8"/>
-      <c r="G152" s="8"/>
-      <c r="H152" s="8"/>
-      <c r="I152" s="8"/>
+      <c r="F152" s="7"/>
+      <c r="G152" s="7"/>
+      <c r="H152" s="7"/>
+      <c r="I152" s="7"/>
       <c r="J152" s="5"/>
       <c r="K152" s="5"/>
     </row>
@@ -5937,16 +5997,16 @@
       <c r="C153" s="5" t="s">
         <v>290</v>
       </c>
-      <c r="D153" s="9">
+      <c r="D153" s="8">
         <v>0.2848</v>
       </c>
-      <c r="E153" s="9">
+      <c r="E153" s="8">
         <v>0.26174855299999999</v>
       </c>
-      <c r="F153" s="8"/>
-      <c r="G153" s="8"/>
-      <c r="H153" s="8"/>
-      <c r="I153" s="8"/>
+      <c r="F153" s="7"/>
+      <c r="G153" s="7"/>
+      <c r="H153" s="7"/>
+      <c r="I153" s="7"/>
       <c r="J153" s="5"/>
       <c r="K153" s="5"/>
     </row>
@@ -5961,16 +6021,16 @@
       <c r="C154" s="5" t="s">
         <v>292</v>
       </c>
-      <c r="D154" s="9">
+      <c r="D154" s="8">
         <v>0.30859999999999999</v>
       </c>
-      <c r="E154" s="9">
+      <c r="E154" s="8">
         <v>0.26134750499999998</v>
       </c>
-      <c r="F154" s="8"/>
-      <c r="G154" s="8"/>
-      <c r="H154" s="8"/>
-      <c r="I154" s="8"/>
+      <c r="F154" s="7"/>
+      <c r="G154" s="7"/>
+      <c r="H154" s="7"/>
+      <c r="I154" s="7"/>
       <c r="J154" s="5"/>
       <c r="K154" s="5"/>
     </row>
@@ -5985,16 +6045,16 @@
       <c r="C155" s="5" t="s">
         <v>294</v>
       </c>
-      <c r="D155" s="9">
+      <c r="D155" s="8">
         <v>0.65759999999999996</v>
       </c>
-      <c r="E155" s="9">
+      <c r="E155" s="8">
         <v>0.26130524900000002</v>
       </c>
-      <c r="F155" s="8"/>
-      <c r="G155" s="8"/>
-      <c r="H155" s="8"/>
-      <c r="I155" s="8"/>
+      <c r="F155" s="7"/>
+      <c r="G155" s="7"/>
+      <c r="H155" s="7"/>
+      <c r="I155" s="7"/>
       <c r="J155" s="5"/>
       <c r="K155" s="5"/>
     </row>
@@ -6009,16 +6069,16 @@
       <c r="C156" s="5" t="s">
         <v>296</v>
       </c>
-      <c r="D156" s="9">
+      <c r="D156" s="8">
         <v>0.98799999999999999</v>
       </c>
-      <c r="E156" s="9">
+      <c r="E156" s="8">
         <v>0.26005180300000003</v>
       </c>
-      <c r="F156" s="8"/>
-      <c r="G156" s="8"/>
-      <c r="H156" s="8"/>
-      <c r="I156" s="8"/>
+      <c r="F156" s="7"/>
+      <c r="G156" s="7"/>
+      <c r="H156" s="7"/>
+      <c r="I156" s="7"/>
       <c r="J156" s="5"/>
       <c r="K156" s="5"/>
     </row>
@@ -6033,16 +6093,16 @@
       <c r="C157" s="5" t="s">
         <v>298</v>
       </c>
-      <c r="D157" s="9">
+      <c r="D157" s="8">
         <v>12.73</v>
       </c>
-      <c r="E157" s="9">
+      <c r="E157" s="8">
         <v>0.257539927</v>
       </c>
-      <c r="F157" s="8"/>
-      <c r="G157" s="8"/>
-      <c r="H157" s="8"/>
-      <c r="I157" s="8"/>
+      <c r="F157" s="7"/>
+      <c r="G157" s="7"/>
+      <c r="H157" s="7"/>
+      <c r="I157" s="7"/>
       <c r="J157" s="5"/>
       <c r="K157" s="5"/>
     </row>
@@ -6057,16 +6117,16 @@
       <c r="C158" s="5" t="s">
         <v>300</v>
       </c>
-      <c r="D158" s="9">
+      <c r="D158" s="8">
         <v>1.44</v>
       </c>
-      <c r="E158" s="9">
+      <c r="E158" s="8">
         <v>0.25512378000000002</v>
       </c>
-      <c r="F158" s="8"/>
-      <c r="G158" s="8"/>
-      <c r="H158" s="8"/>
-      <c r="I158" s="8"/>
+      <c r="F158" s="7"/>
+      <c r="G158" s="7"/>
+      <c r="H158" s="7"/>
+      <c r="I158" s="7"/>
       <c r="J158" s="5"/>
       <c r="K158" s="5"/>
     </row>
@@ -6081,16 +6141,16 @@
       <c r="C159" s="5" t="s">
         <v>301</v>
       </c>
-      <c r="D159" s="9">
+      <c r="D159" s="8">
         <v>1.3679999999999999E-2</v>
       </c>
-      <c r="E159" s="9">
+      <c r="E159" s="8">
         <v>0.25402531299999997</v>
       </c>
-      <c r="F159" s="8"/>
-      <c r="G159" s="8"/>
-      <c r="H159" s="8"/>
-      <c r="I159" s="8"/>
+      <c r="F159" s="7"/>
+      <c r="G159" s="7"/>
+      <c r="H159" s="7"/>
+      <c r="I159" s="7"/>
       <c r="J159" s="5"/>
       <c r="K159" s="5"/>
     </row>
@@ -6105,16 +6165,16 @@
       <c r="C160" s="5" t="s">
         <v>303</v>
       </c>
-      <c r="D160" s="9">
+      <c r="D160" s="8">
         <v>0.34310000000000002</v>
       </c>
-      <c r="E160" s="9">
+      <c r="E160" s="8">
         <v>0.24884577099999999</v>
       </c>
-      <c r="F160" s="8"/>
-      <c r="G160" s="8"/>
-      <c r="H160" s="8"/>
-      <c r="I160" s="8"/>
+      <c r="F160" s="7"/>
+      <c r="G160" s="7"/>
+      <c r="H160" s="7"/>
+      <c r="I160" s="7"/>
       <c r="J160" s="5"/>
       <c r="K160" s="5"/>
     </row>
@@ -6129,16 +6189,16 @@
       <c r="C161" s="5" t="s">
         <v>305</v>
       </c>
-      <c r="D161" s="9">
+      <c r="D161" s="8">
         <v>0.72799999999999998</v>
       </c>
-      <c r="E161" s="9">
+      <c r="E161" s="8">
         <v>0.24021580300000001</v>
       </c>
-      <c r="F161" s="8"/>
-      <c r="G161" s="8"/>
-      <c r="H161" s="8"/>
-      <c r="I161" s="8"/>
+      <c r="F161" s="7"/>
+      <c r="G161" s="7"/>
+      <c r="H161" s="7"/>
+      <c r="I161" s="7"/>
       <c r="J161" s="5"/>
       <c r="K161" s="5"/>
     </row>
@@ -6153,16 +6213,16 @@
       <c r="C162" s="5" t="s">
         <v>307</v>
       </c>
-      <c r="D162" s="9">
+      <c r="D162" s="8">
         <v>5.71</v>
       </c>
-      <c r="E162" s="9">
+      <c r="E162" s="8">
         <v>0.232870568</v>
       </c>
-      <c r="F162" s="8"/>
-      <c r="G162" s="8"/>
-      <c r="H162" s="8"/>
-      <c r="I162" s="8"/>
+      <c r="F162" s="7"/>
+      <c r="G162" s="7"/>
+      <c r="H162" s="7"/>
+      <c r="I162" s="7"/>
       <c r="J162" s="5"/>
       <c r="K162" s="5"/>
     </row>
@@ -6177,16 +6237,16 @@
       <c r="C163" s="5" t="s">
         <v>309</v>
       </c>
-      <c r="D163" s="9">
+      <c r="D163" s="8">
         <v>9.1999999999999993</v>
       </c>
-      <c r="E163" s="9">
+      <c r="E163" s="8">
         <v>0.22321063799999999</v>
       </c>
-      <c r="F163" s="8"/>
-      <c r="G163" s="8"/>
-      <c r="H163" s="8"/>
-      <c r="I163" s="8"/>
+      <c r="F163" s="7"/>
+      <c r="G163" s="7"/>
+      <c r="H163" s="7"/>
+      <c r="I163" s="7"/>
       <c r="J163" s="5"/>
       <c r="K163" s="5"/>
     </row>
@@ -6201,16 +6261,16 @@
       <c r="C164" s="5" t="s">
         <v>311</v>
       </c>
-      <c r="D164" s="9">
+      <c r="D164" s="8">
         <v>4.2900000000000004E-3</v>
       </c>
-      <c r="E164" s="9">
+      <c r="E164" s="8">
         <v>0.220735494</v>
       </c>
-      <c r="F164" s="8"/>
-      <c r="G164" s="8"/>
-      <c r="H164" s="8"/>
-      <c r="I164" s="8"/>
+      <c r="F164" s="7"/>
+      <c r="G164" s="7"/>
+      <c r="H164" s="7"/>
+      <c r="I164" s="7"/>
       <c r="J164" s="5"/>
       <c r="K164" s="5"/>
     </row>
@@ -6225,16 +6285,16 @@
       <c r="C165" s="5" t="s">
         <v>313</v>
       </c>
-      <c r="D165" s="9">
+      <c r="D165" s="8">
         <v>0.25209999999999999</v>
       </c>
-      <c r="E165" s="9">
+      <c r="E165" s="8">
         <v>0.220732868</v>
       </c>
-      <c r="F165" s="8"/>
-      <c r="G165" s="8"/>
-      <c r="H165" s="8"/>
-      <c r="I165" s="8"/>
+      <c r="F165" s="7"/>
+      <c r="G165" s="7"/>
+      <c r="H165" s="7"/>
+      <c r="I165" s="7"/>
       <c r="J165" s="5"/>
       <c r="K165" s="5"/>
     </row>
@@ -6249,16 +6309,16 @@
       <c r="C166" s="5" t="s">
         <v>315</v>
       </c>
-      <c r="D166" s="9">
+      <c r="D166" s="8">
         <v>0.10290000000000001</v>
       </c>
-      <c r="E166" s="9">
+      <c r="E166" s="8">
         <v>0.217787708</v>
       </c>
-      <c r="F166" s="8"/>
-      <c r="G166" s="8"/>
-      <c r="H166" s="8"/>
-      <c r="I166" s="8"/>
+      <c r="F166" s="7"/>
+      <c r="G166" s="7"/>
+      <c r="H166" s="7"/>
+      <c r="I166" s="7"/>
       <c r="J166" s="5"/>
       <c r="K166" s="5"/>
     </row>
@@ -6273,16 +6333,16 @@
       <c r="C167" s="5" t="s">
         <v>317</v>
       </c>
-      <c r="D167" s="9">
+      <c r="D167" s="8">
         <v>17.11</v>
       </c>
-      <c r="E167" s="9">
+      <c r="E167" s="8">
         <v>0.21617287800000001</v>
       </c>
-      <c r="F167" s="8"/>
-      <c r="G167" s="8"/>
-      <c r="H167" s="8"/>
-      <c r="I167" s="8"/>
+      <c r="F167" s="7"/>
+      <c r="G167" s="7"/>
+      <c r="H167" s="7"/>
+      <c r="I167" s="7"/>
       <c r="J167" s="5"/>
       <c r="K167" s="5"/>
     </row>
@@ -6297,16 +6357,16 @@
       <c r="C168" s="5" t="s">
         <v>319</v>
       </c>
-      <c r="D168" s="9">
+      <c r="D168" s="8">
         <v>2.2599999999999998</v>
       </c>
-      <c r="E168" s="9">
+      <c r="E168" s="8">
         <v>0.206020693</v>
       </c>
-      <c r="F168" s="8"/>
-      <c r="G168" s="8"/>
-      <c r="H168" s="8"/>
-      <c r="I168" s="8"/>
+      <c r="F168" s="7"/>
+      <c r="G168" s="7"/>
+      <c r="H168" s="7"/>
+      <c r="I168" s="7"/>
       <c r="J168" s="5"/>
       <c r="K168" s="5"/>
     </row>
@@ -6321,16 +6381,16 @@
       <c r="C169" s="5" t="s">
         <v>321</v>
       </c>
-      <c r="D169" s="9">
+      <c r="D169" s="8">
         <v>0.46229999999999999</v>
       </c>
-      <c r="E169" s="9">
+      <c r="E169" s="8">
         <v>0.203682638</v>
       </c>
-      <c r="F169" s="8"/>
-      <c r="G169" s="8"/>
-      <c r="H169" s="8"/>
-      <c r="I169" s="8"/>
+      <c r="F169" s="7"/>
+      <c r="G169" s="7"/>
+      <c r="H169" s="7"/>
+      <c r="I169" s="7"/>
       <c r="J169" s="5"/>
       <c r="K169" s="5"/>
     </row>
@@ -6345,16 +6405,16 @@
       <c r="C170" s="5" t="s">
         <v>323</v>
       </c>
-      <c r="D170" s="9">
+      <c r="D170" s="8">
         <v>0.20219999999999999</v>
       </c>
-      <c r="E170" s="9">
+      <c r="E170" s="8">
         <v>0.202452576</v>
       </c>
-      <c r="F170" s="8"/>
-      <c r="G170" s="8"/>
-      <c r="H170" s="8"/>
-      <c r="I170" s="8"/>
+      <c r="F170" s="7"/>
+      <c r="G170" s="7"/>
+      <c r="H170" s="7"/>
+      <c r="I170" s="7"/>
       <c r="J170" s="5"/>
       <c r="K170" s="5"/>
     </row>
@@ -6369,16 +6429,16 @@
       <c r="C171" s="5" t="s">
         <v>324</v>
       </c>
-      <c r="D171" s="9">
+      <c r="D171" s="8">
         <v>7.6100000000000001E-2</v>
       </c>
-      <c r="E171" s="9">
+      <c r="E171" s="8">
         <v>0.20110444999999999</v>
       </c>
-      <c r="F171" s="8"/>
-      <c r="G171" s="8"/>
-      <c r="H171" s="8"/>
-      <c r="I171" s="8"/>
+      <c r="F171" s="7"/>
+      <c r="G171" s="7"/>
+      <c r="H171" s="7"/>
+      <c r="I171" s="7"/>
       <c r="J171" s="5"/>
       <c r="K171" s="5"/>
     </row>
@@ -6393,16 +6453,16 @@
       <c r="C172" s="5" t="s">
         <v>326</v>
       </c>
-      <c r="D172" s="9">
+      <c r="D172" s="8">
         <v>3.6139999999999999E-7</v>
       </c>
-      <c r="E172" s="9">
+      <c r="E172" s="8">
         <v>0.199271797</v>
       </c>
-      <c r="F172" s="8"/>
-      <c r="G172" s="8"/>
-      <c r="H172" s="8"/>
-      <c r="I172" s="8"/>
+      <c r="F172" s="7"/>
+      <c r="G172" s="7"/>
+      <c r="H172" s="7"/>
+      <c r="I172" s="7"/>
       <c r="J172" s="5"/>
       <c r="K172" s="5"/>
     </row>
@@ -6417,16 +6477,16 @@
       <c r="C173" s="5" t="s">
         <v>327</v>
       </c>
-      <c r="D173" s="9">
+      <c r="D173" s="8">
         <v>0.40229999999999999</v>
       </c>
-      <c r="E173" s="9">
+      <c r="E173" s="8">
         <v>0.19770173499999999</v>
       </c>
-      <c r="F173" s="8"/>
-      <c r="G173" s="8"/>
-      <c r="H173" s="8"/>
-      <c r="I173" s="8"/>
+      <c r="F173" s="7"/>
+      <c r="G173" s="7"/>
+      <c r="H173" s="7"/>
+      <c r="I173" s="7"/>
       <c r="J173" s="5"/>
       <c r="K173" s="5"/>
     </row>
@@ -6441,16 +6501,16 @@
       <c r="C174" s="5" t="s">
         <v>329</v>
       </c>
-      <c r="D174" s="9">
+      <c r="D174" s="8">
         <v>0.24490000000000001</v>
       </c>
-      <c r="E174" s="9">
+      <c r="E174" s="8">
         <v>0.19735651000000001</v>
       </c>
-      <c r="F174" s="8"/>
-      <c r="G174" s="8"/>
-      <c r="H174" s="8"/>
-      <c r="I174" s="8"/>
+      <c r="F174" s="7"/>
+      <c r="G174" s="7"/>
+      <c r="H174" s="7"/>
+      <c r="I174" s="7"/>
       <c r="J174" s="5"/>
       <c r="K174" s="5"/>
     </row>
@@ -6465,16 +6525,16 @@
       <c r="C175" s="5" t="s">
         <v>331</v>
       </c>
-      <c r="D175" s="9">
+      <c r="D175" s="8">
         <v>0.1019</v>
       </c>
-      <c r="E175" s="9">
+      <c r="E175" s="8">
         <v>0.52775393699999995</v>
       </c>
-      <c r="F175" s="8"/>
-      <c r="G175" s="8"/>
-      <c r="H175" s="8"/>
-      <c r="I175" s="8"/>
+      <c r="F175" s="7"/>
+      <c r="G175" s="7"/>
+      <c r="H175" s="7"/>
+      <c r="I175" s="7"/>
       <c r="J175" s="5"/>
       <c r="K175" s="5"/>
     </row>
@@ -6489,16 +6549,16 @@
       <c r="C176" s="5" t="s">
         <v>333</v>
       </c>
-      <c r="D176" s="9">
+      <c r="D176" s="8">
         <v>52.4</v>
       </c>
-      <c r="E176" s="9">
+      <c r="E176" s="8">
         <v>0.52921916099999999</v>
       </c>
-      <c r="F176" s="8"/>
-      <c r="G176" s="8"/>
-      <c r="H176" s="8"/>
-      <c r="I176" s="8"/>
+      <c r="F176" s="7"/>
+      <c r="G176" s="7"/>
+      <c r="H176" s="7"/>
+      <c r="I176" s="7"/>
       <c r="J176" s="5"/>
       <c r="K176" s="5"/>
     </row>
@@ -6513,16 +6573,16 @@
       <c r="C177" s="5" t="s">
         <v>334</v>
       </c>
-      <c r="D177" s="9">
+      <c r="D177" s="8">
         <v>2.88</v>
       </c>
-      <c r="E177" s="9">
+      <c r="E177" s="8">
         <v>0.19296803800000001</v>
       </c>
-      <c r="F177" s="8"/>
-      <c r="G177" s="8"/>
-      <c r="H177" s="8"/>
-      <c r="I177" s="8"/>
+      <c r="F177" s="7"/>
+      <c r="G177" s="7"/>
+      <c r="H177" s="7"/>
+      <c r="I177" s="7"/>
       <c r="J177" s="5"/>
       <c r="K177" s="5"/>
     </row>
@@ -6537,16 +6597,16 @@
       <c r="C178" s="5" t="s">
         <v>336</v>
       </c>
-      <c r="D178" s="9">
+      <c r="D178" s="8">
         <v>0.21260000000000001</v>
       </c>
-      <c r="E178" s="9">
+      <c r="E178" s="8">
         <v>0.19115043600000001</v>
       </c>
-      <c r="F178" s="8"/>
-      <c r="G178" s="8"/>
-      <c r="H178" s="8"/>
-      <c r="I178" s="8"/>
+      <c r="F178" s="7"/>
+      <c r="G178" s="7"/>
+      <c r="H178" s="7"/>
+      <c r="I178" s="7"/>
       <c r="J178" s="5"/>
       <c r="K178" s="5"/>
     </row>
@@ -6561,16 +6621,16 @@
       <c r="C179" s="5" t="s">
         <v>338</v>
       </c>
-      <c r="D179" s="9">
+      <c r="D179" s="8">
         <v>1.1399999999999999</v>
       </c>
-      <c r="E179" s="9">
+      <c r="E179" s="8">
         <v>0.18681077500000001</v>
       </c>
-      <c r="F179" s="8"/>
-      <c r="G179" s="8"/>
-      <c r="H179" s="8"/>
-      <c r="I179" s="8"/>
+      <c r="F179" s="7"/>
+      <c r="G179" s="7"/>
+      <c r="H179" s="7"/>
+      <c r="I179" s="7"/>
       <c r="J179" s="5"/>
       <c r="K179" s="5"/>
     </row>
@@ -6585,16 +6645,16 @@
       <c r="C180" s="5" t="s">
         <v>340</v>
       </c>
-      <c r="D180" s="9">
+      <c r="D180" s="8">
         <v>4.3470000000000002E-3</v>
       </c>
-      <c r="E180" s="9">
+      <c r="E180" s="8">
         <v>0.18664656499999999</v>
       </c>
-      <c r="F180" s="8"/>
-      <c r="G180" s="8"/>
-      <c r="H180" s="8"/>
-      <c r="I180" s="8"/>
+      <c r="F180" s="7"/>
+      <c r="G180" s="7"/>
+      <c r="H180" s="7"/>
+      <c r="I180" s="7"/>
       <c r="J180" s="5"/>
       <c r="K180" s="5"/>
     </row>
@@ -6609,16 +6669,16 @@
       <c r="C181" s="5" t="s">
         <v>342</v>
       </c>
-      <c r="D181" s="9">
+      <c r="D181" s="8">
         <v>6.7199999999999998E-7</v>
       </c>
-      <c r="E181" s="9">
+      <c r="E181" s="8">
         <v>0.18636437</v>
       </c>
-      <c r="F181" s="8"/>
-      <c r="G181" s="8"/>
-      <c r="H181" s="8"/>
-      <c r="I181" s="8"/>
+      <c r="F181" s="7"/>
+      <c r="G181" s="7"/>
+      <c r="H181" s="7"/>
+      <c r="I181" s="7"/>
       <c r="J181" s="5"/>
       <c r="K181" s="5"/>
     </row>
@@ -6633,16 +6693,16 @@
       <c r="C182" s="5" t="s">
         <v>344</v>
       </c>
-      <c r="D182" s="9">
+      <c r="D182" s="8">
         <v>24.25</v>
       </c>
-      <c r="E182" s="9">
+      <c r="E182" s="8">
         <v>0.17454940199999999</v>
       </c>
-      <c r="F182" s="8"/>
-      <c r="G182" s="8"/>
-      <c r="H182" s="8"/>
-      <c r="I182" s="8"/>
+      <c r="F182" s="7"/>
+      <c r="G182" s="7"/>
+      <c r="H182" s="7"/>
+      <c r="I182" s="7"/>
       <c r="J182" s="5"/>
       <c r="K182" s="5"/>
     </row>
@@ -6657,16 +6717,16 @@
       <c r="C183" s="5" t="s">
         <v>346</v>
       </c>
-      <c r="D183" s="9">
+      <c r="D183" s="8">
         <v>1.35</v>
       </c>
-      <c r="E183" s="9">
+      <c r="E183" s="8">
         <v>0.171127055</v>
       </c>
-      <c r="F183" s="8"/>
-      <c r="G183" s="8"/>
-      <c r="H183" s="8"/>
-      <c r="I183" s="8"/>
+      <c r="F183" s="7"/>
+      <c r="G183" s="7"/>
+      <c r="H183" s="7"/>
+      <c r="I183" s="7"/>
       <c r="J183" s="5"/>
       <c r="K183" s="5"/>
     </row>
@@ -6681,16 +6741,16 @@
       <c r="C184" s="5" t="s">
         <v>348</v>
       </c>
-      <c r="D184" s="9">
+      <c r="D184" s="8">
         <v>3.1309999999999998E-2</v>
       </c>
-      <c r="E184" s="9">
+      <c r="E184" s="8">
         <v>0.17039283699999999</v>
       </c>
-      <c r="F184" s="8"/>
-      <c r="G184" s="8"/>
-      <c r="H184" s="8"/>
-      <c r="I184" s="8"/>
+      <c r="F184" s="7"/>
+      <c r="G184" s="7"/>
+      <c r="H184" s="7"/>
+      <c r="I184" s="7"/>
       <c r="J184" s="5"/>
       <c r="K184" s="5"/>
     </row>
@@ -6705,16 +6765,16 @@
       <c r="C185" s="5" t="s">
         <v>350</v>
       </c>
-      <c r="D185" s="9">
+      <c r="D185" s="8">
         <v>1.0749999999999999E-2</v>
       </c>
-      <c r="E185" s="9">
+      <c r="E185" s="8">
         <v>0.166817468</v>
       </c>
-      <c r="F185" s="8"/>
-      <c r="G185" s="8"/>
-      <c r="H185" s="8"/>
-      <c r="I185" s="8"/>
+      <c r="F185" s="7"/>
+      <c r="G185" s="7"/>
+      <c r="H185" s="7"/>
+      <c r="I185" s="7"/>
       <c r="J185" s="5"/>
       <c r="K185" s="5"/>
     </row>
@@ -6729,16 +6789,16 @@
       <c r="C186" s="5" t="s">
         <v>352</v>
       </c>
-      <c r="D186" s="9">
+      <c r="D186" s="8">
         <v>0.38669999999999999</v>
       </c>
-      <c r="E186" s="9">
+      <c r="E186" s="8">
         <v>0.16365843199999999</v>
       </c>
-      <c r="F186" s="8"/>
-      <c r="G186" s="8"/>
-      <c r="H186" s="8"/>
-      <c r="I186" s="8"/>
+      <c r="F186" s="7"/>
+      <c r="G186" s="7"/>
+      <c r="H186" s="7"/>
+      <c r="I186" s="7"/>
       <c r="J186" s="5"/>
       <c r="K186" s="5"/>
     </row>
@@ -6753,16 +6813,16 @@
       <c r="C187" s="5" t="s">
         <v>354</v>
       </c>
-      <c r="D187" s="9">
+      <c r="D187" s="8">
         <v>0.14549999999999999</v>
       </c>
-      <c r="E187" s="9">
+      <c r="E187" s="8">
         <v>0.14537486599999999</v>
       </c>
-      <c r="F187" s="8"/>
-      <c r="G187" s="8"/>
-      <c r="H187" s="8"/>
-      <c r="I187" s="8"/>
+      <c r="F187" s="7"/>
+      <c r="G187" s="7"/>
+      <c r="H187" s="7"/>
+      <c r="I187" s="7"/>
       <c r="J187" s="5"/>
       <c r="K187" s="5"/>
     </row>
@@ -6777,16 +6837,16 @@
       <c r="C188" s="5" t="s">
         <v>356</v>
       </c>
-      <c r="D188" s="9">
+      <c r="D188" s="8">
         <v>1.1299999999999999</v>
       </c>
-      <c r="E188" s="9">
+      <c r="E188" s="8">
         <v>0.14514666400000001</v>
       </c>
-      <c r="F188" s="8"/>
-      <c r="G188" s="8"/>
-      <c r="H188" s="8"/>
-      <c r="I188" s="8"/>
+      <c r="F188" s="7"/>
+      <c r="G188" s="7"/>
+      <c r="H188" s="7"/>
+      <c r="I188" s="7"/>
       <c r="J188" s="5"/>
       <c r="K188" s="5"/>
     </row>
@@ -6801,16 +6861,16 @@
       <c r="C189" s="5" t="s">
         <v>358</v>
       </c>
-      <c r="D189" s="9">
+      <c r="D189" s="8">
         <v>0.14419999999999999</v>
       </c>
-      <c r="E189" s="9">
+      <c r="E189" s="8">
         <v>0.14409846800000001</v>
       </c>
-      <c r="F189" s="8"/>
-      <c r="G189" s="8"/>
-      <c r="H189" s="8"/>
-      <c r="I189" s="8"/>
+      <c r="F189" s="7"/>
+      <c r="G189" s="7"/>
+      <c r="H189" s="7"/>
+      <c r="I189" s="7"/>
       <c r="J189" s="5"/>
       <c r="K189" s="5"/>
     </row>
@@ -6825,16 +6885,16 @@
       <c r="C190" s="5" t="s">
         <v>360</v>
       </c>
-      <c r="D190" s="9">
+      <c r="D190" s="8">
         <v>0.1804</v>
       </c>
-      <c r="E190" s="9">
+      <c r="E190" s="8">
         <v>0.14333210699999999</v>
       </c>
-      <c r="F190" s="8"/>
-      <c r="G190" s="8"/>
-      <c r="H190" s="8"/>
-      <c r="I190" s="8"/>
+      <c r="F190" s="7"/>
+      <c r="G190" s="7"/>
+      <c r="H190" s="7"/>
+      <c r="I190" s="7"/>
       <c r="J190" s="5"/>
       <c r="K190" s="5"/>
     </row>
@@ -6849,16 +6909,16 @@
       <c r="C191" s="5" t="s">
         <v>324</v>
       </c>
-      <c r="D191" s="9">
+      <c r="D191" s="8">
         <v>1.4</v>
       </c>
-      <c r="E191" s="9">
+      <c r="E191" s="8">
         <v>0.139513416</v>
       </c>
-      <c r="F191" s="8"/>
-      <c r="G191" s="8"/>
-      <c r="H191" s="8"/>
-      <c r="I191" s="8"/>
+      <c r="F191" s="7"/>
+      <c r="G191" s="7"/>
+      <c r="H191" s="7"/>
+      <c r="I191" s="7"/>
       <c r="J191" s="5"/>
       <c r="K191" s="5"/>
     </row>
@@ -6873,16 +6933,16 @@
       <c r="C192" s="5" t="s">
         <v>363</v>
       </c>
-      <c r="D192" s="9">
+      <c r="D192" s="8">
         <v>0.29870000000000002</v>
       </c>
-      <c r="E192" s="9">
+      <c r="E192" s="8">
         <v>0.139513416</v>
       </c>
-      <c r="F192" s="8"/>
-      <c r="G192" s="8"/>
-      <c r="H192" s="8"/>
-      <c r="I192" s="8"/>
+      <c r="F192" s="7"/>
+      <c r="G192" s="7"/>
+      <c r="H192" s="7"/>
+      <c r="I192" s="7"/>
       <c r="J192" s="5"/>
       <c r="K192" s="5"/>
     </row>
@@ -6897,16 +6957,16 @@
       <c r="C193" s="5" t="s">
         <v>365</v>
       </c>
-      <c r="D193" s="9">
+      <c r="D193" s="8">
         <v>0.50900000000000001</v>
       </c>
-      <c r="E193" s="9">
+      <c r="E193" s="8">
         <v>0.13805571</v>
       </c>
-      <c r="F193" s="8"/>
-      <c r="G193" s="8"/>
-      <c r="H193" s="8"/>
-      <c r="I193" s="8"/>
+      <c r="F193" s="7"/>
+      <c r="G193" s="7"/>
+      <c r="H193" s="7"/>
+      <c r="I193" s="7"/>
       <c r="J193" s="5"/>
       <c r="K193" s="5"/>
     </row>
@@ -6921,16 +6981,16 @@
       <c r="C194" s="5" t="s">
         <v>367</v>
       </c>
-      <c r="D194" s="9">
+      <c r="D194" s="8">
         <v>4.143E-3</v>
       </c>
-      <c r="E194" s="9">
+      <c r="E194" s="8">
         <v>0.13791399600000001</v>
       </c>
-      <c r="F194" s="8"/>
-      <c r="G194" s="8"/>
-      <c r="H194" s="8"/>
-      <c r="I194" s="8"/>
+      <c r="F194" s="7"/>
+      <c r="G194" s="7"/>
+      <c r="H194" s="7"/>
+      <c r="I194" s="7"/>
       <c r="J194" s="5"/>
       <c r="K194" s="5"/>
     </row>
@@ -6945,16 +7005,16 @@
       <c r="C195" s="5" t="s">
         <v>369</v>
       </c>
-      <c r="D195" s="9">
+      <c r="D195" s="8">
         <v>2.6890000000000001E-2</v>
       </c>
-      <c r="E195" s="9">
+      <c r="E195" s="8">
         <v>0.136491687</v>
       </c>
-      <c r="F195" s="8"/>
-      <c r="G195" s="8"/>
-      <c r="H195" s="8"/>
-      <c r="I195" s="8"/>
+      <c r="F195" s="7"/>
+      <c r="G195" s="7"/>
+      <c r="H195" s="7"/>
+      <c r="I195" s="7"/>
       <c r="J195" s="5"/>
       <c r="K195" s="5"/>
     </row>
@@ -6969,16 +7029,16 @@
       <c r="C196" s="5" t="s">
         <v>371</v>
       </c>
-      <c r="D196" s="9">
+      <c r="D196" s="8">
         <v>1.933E-2</v>
       </c>
-      <c r="E196" s="9">
+      <c r="E196" s="8">
         <v>0.135654096</v>
       </c>
-      <c r="F196" s="8"/>
-      <c r="G196" s="8"/>
-      <c r="H196" s="8"/>
-      <c r="I196" s="8"/>
+      <c r="F196" s="7"/>
+      <c r="G196" s="7"/>
+      <c r="H196" s="7"/>
+      <c r="I196" s="7"/>
       <c r="J196" s="5"/>
       <c r="K196" s="5"/>
     </row>
@@ -6993,16 +7053,16 @@
       <c r="C197" s="5" t="s">
         <v>373</v>
       </c>
-      <c r="D197" s="9">
+      <c r="D197" s="8">
         <v>0.18440000000000001</v>
       </c>
-      <c r="E197" s="9">
+      <c r="E197" s="8">
         <v>0.13342649000000001</v>
       </c>
-      <c r="F197" s="8"/>
-      <c r="G197" s="8"/>
-      <c r="H197" s="8"/>
-      <c r="I197" s="8"/>
+      <c r="F197" s="7"/>
+      <c r="G197" s="7"/>
+      <c r="H197" s="7"/>
+      <c r="I197" s="7"/>
       <c r="J197" s="5"/>
       <c r="K197" s="5"/>
     </row>
@@ -7017,16 +7077,16 @@
       <c r="C198" s="5" t="s">
         <v>375</v>
       </c>
-      <c r="D198" s="9">
+      <c r="D198" s="8">
         <v>0.18890000000000001</v>
       </c>
-      <c r="E198" s="9">
+      <c r="E198" s="8">
         <v>0.132814986</v>
       </c>
-      <c r="F198" s="8"/>
-      <c r="G198" s="8"/>
-      <c r="H198" s="8"/>
-      <c r="I198" s="8"/>
+      <c r="F198" s="7"/>
+      <c r="G198" s="7"/>
+      <c r="H198" s="7"/>
+      <c r="I198" s="7"/>
       <c r="J198" s="5"/>
       <c r="K198" s="5"/>
     </row>
@@ -7041,16 +7101,16 @@
       <c r="C199" s="5" t="s">
         <v>377</v>
       </c>
-      <c r="D199" s="9">
+      <c r="D199" s="8">
         <v>0.95650000000000002</v>
       </c>
-      <c r="E199" s="9">
+      <c r="E199" s="8">
         <v>0.12730638799999999</v>
       </c>
-      <c r="F199" s="8"/>
-      <c r="G199" s="8"/>
-      <c r="H199" s="8"/>
-      <c r="I199" s="8"/>
+      <c r="F199" s="7"/>
+      <c r="G199" s="7"/>
+      <c r="H199" s="7"/>
+      <c r="I199" s="7"/>
       <c r="J199" s="5"/>
       <c r="K199" s="5"/>
     </row>
@@ -7065,16 +7125,16 @@
       <c r="C200" s="5" t="s">
         <v>379</v>
       </c>
-      <c r="D200" s="9">
+      <c r="D200" s="8">
         <v>0.39290000000000003</v>
       </c>
-      <c r="E200" s="9">
+      <c r="E200" s="8">
         <v>0.12376409200000001</v>
       </c>
-      <c r="F200" s="8"/>
-      <c r="G200" s="8"/>
-      <c r="H200" s="8"/>
-      <c r="I200" s="8"/>
+      <c r="F200" s="7"/>
+      <c r="G200" s="7"/>
+      <c r="H200" s="7"/>
+      <c r="I200" s="7"/>
       <c r="J200" s="5"/>
       <c r="K200" s="5"/>
     </row>
@@ -7089,16 +7149,16 @@
       <c r="C201" s="5" t="s">
         <v>381</v>
       </c>
-      <c r="D201" s="9">
+      <c r="D201" s="8">
         <v>4.249E-2</v>
       </c>
-      <c r="E201" s="9">
+      <c r="E201" s="8">
         <v>0.12368742100000001</v>
       </c>
-      <c r="F201" s="8"/>
-      <c r="G201" s="8"/>
-      <c r="H201" s="8"/>
-      <c r="I201" s="8"/>
+      <c r="F201" s="7"/>
+      <c r="G201" s="7"/>
+      <c r="H201" s="7"/>
+      <c r="I201" s="7"/>
       <c r="J201" s="5"/>
       <c r="K201" s="5"/>
     </row>
@@ -7113,16 +7173,16 @@
       <c r="C202" s="5" t="s">
         <v>383</v>
       </c>
-      <c r="D202" s="9">
+      <c r="D202" s="8">
         <v>0.53439999999999999</v>
       </c>
-      <c r="E202" s="9">
+      <c r="E202" s="8">
         <v>0.122667151</v>
       </c>
-      <c r="F202" s="8"/>
-      <c r="G202" s="8"/>
-      <c r="H202" s="8"/>
-      <c r="I202" s="8"/>
+      <c r="F202" s="7"/>
+      <c r="G202" s="7"/>
+      <c r="H202" s="7"/>
+      <c r="I202" s="7"/>
       <c r="J202" s="5"/>
       <c r="K202" s="5"/>
     </row>
@@ -7137,16 +7197,16 @@
       <c r="C203" s="5" t="s">
         <v>385</v>
       </c>
-      <c r="D203" s="9">
+      <c r="D203" s="8">
         <v>4.2380000000000001E-2</v>
       </c>
-      <c r="E203" s="9">
+      <c r="E203" s="8">
         <v>0.121920311</v>
       </c>
-      <c r="F203" s="8"/>
-      <c r="G203" s="8"/>
-      <c r="H203" s="8"/>
-      <c r="I203" s="8"/>
+      <c r="F203" s="7"/>
+      <c r="G203" s="7"/>
+      <c r="H203" s="7"/>
+      <c r="I203" s="7"/>
       <c r="J203" s="5"/>
       <c r="K203" s="5"/>
     </row>
@@ -7161,16 +7221,16 @@
       <c r="C204" s="5" t="s">
         <v>387</v>
       </c>
-      <c r="D204" s="9">
+      <c r="D204" s="8">
         <v>0.1202</v>
       </c>
-      <c r="E204" s="9">
+      <c r="E204" s="8">
         <v>0.120184343</v>
       </c>
-      <c r="F204" s="8"/>
-      <c r="G204" s="8"/>
-      <c r="H204" s="8"/>
-      <c r="I204" s="8"/>
+      <c r="F204" s="7"/>
+      <c r="G204" s="7"/>
+      <c r="H204" s="7"/>
+      <c r="I204" s="7"/>
       <c r="J204" s="5"/>
       <c r="K204" s="5"/>
     </row>
@@ -7185,16 +7245,16 @@
       <c r="C205" s="5" t="s">
         <v>389</v>
       </c>
-      <c r="D205" s="9">
+      <c r="D205" s="8">
         <v>1.236E-4</v>
       </c>
-      <c r="E205" s="9">
+      <c r="E205" s="8">
         <v>0.11883542499999999</v>
       </c>
-      <c r="F205" s="8"/>
-      <c r="G205" s="8"/>
-      <c r="H205" s="8"/>
-      <c r="I205" s="8"/>
+      <c r="F205" s="7"/>
+      <c r="G205" s="7"/>
+      <c r="H205" s="7"/>
+      <c r="I205" s="7"/>
       <c r="J205" s="5"/>
       <c r="K205" s="5"/>
     </row>
@@ -7209,16 +7269,16 @@
       <c r="C206" s="5" t="s">
         <v>391</v>
       </c>
-      <c r="D206" s="9">
+      <c r="D206" s="8">
         <v>5.6680000000000001E-2</v>
       </c>
-      <c r="E206" s="9">
+      <c r="E206" s="8">
         <v>0.11849712699999999</v>
       </c>
-      <c r="F206" s="8"/>
-      <c r="G206" s="8"/>
-      <c r="H206" s="8"/>
-      <c r="I206" s="8"/>
+      <c r="F206" s="7"/>
+      <c r="G206" s="7"/>
+      <c r="H206" s="7"/>
+      <c r="I206" s="7"/>
       <c r="J206" s="5"/>
       <c r="K206" s="5"/>
     </row>
@@ -7233,16 +7293,16 @@
       <c r="C207" s="5" t="s">
         <v>393</v>
       </c>
-      <c r="D207" s="9">
+      <c r="D207" s="8">
         <v>6.2680000000000001E-3</v>
       </c>
-      <c r="E207" s="9">
+      <c r="E207" s="8">
         <v>0.11766072499999999</v>
       </c>
-      <c r="F207" s="8"/>
-      <c r="G207" s="8"/>
-      <c r="H207" s="8"/>
-      <c r="I207" s="8"/>
+      <c r="F207" s="7"/>
+      <c r="G207" s="7"/>
+      <c r="H207" s="7"/>
+      <c r="I207" s="7"/>
       <c r="J207" s="5"/>
       <c r="K207" s="5"/>
     </row>
@@ -7257,16 +7317,16 @@
       <c r="C208" s="5" t="s">
         <v>395</v>
       </c>
-      <c r="D208" s="9">
+      <c r="D208" s="8">
         <v>0.24179999999999999</v>
       </c>
-      <c r="E208" s="9">
+      <c r="E208" s="8">
         <v>0.117367633</v>
       </c>
-      <c r="F208" s="8"/>
-      <c r="G208" s="8"/>
-      <c r="H208" s="8"/>
-      <c r="I208" s="8"/>
+      <c r="F208" s="7"/>
+      <c r="G208" s="7"/>
+      <c r="H208" s="7"/>
+      <c r="I208" s="7"/>
       <c r="J208" s="5"/>
       <c r="K208" s="5"/>
     </row>
@@ -7281,16 +7341,16 @@
       <c r="C209" s="5" t="s">
         <v>397</v>
       </c>
-      <c r="D209" s="9">
+      <c r="D209" s="8">
         <v>0.41560000000000002</v>
       </c>
-      <c r="E209" s="9">
+      <c r="E209" s="8">
         <v>0.115746405</v>
       </c>
-      <c r="F209" s="8"/>
-      <c r="G209" s="8"/>
-      <c r="H209" s="8"/>
-      <c r="I209" s="8"/>
+      <c r="F209" s="7"/>
+      <c r="G209" s="7"/>
+      <c r="H209" s="7"/>
+      <c r="I209" s="7"/>
       <c r="J209" s="5"/>
       <c r="K209" s="5"/>
     </row>
@@ -7305,16 +7365,16 @@
       <c r="C210" s="5" t="s">
         <v>398</v>
       </c>
-      <c r="D210" s="9">
+      <c r="D210" s="8">
         <v>0.38019999999999998</v>
       </c>
-      <c r="E210" s="9">
+      <c r="E210" s="8">
         <v>0.113343336</v>
       </c>
-      <c r="F210" s="8"/>
-      <c r="G210" s="8"/>
-      <c r="H210" s="8"/>
-      <c r="I210" s="8"/>
+      <c r="F210" s="7"/>
+      <c r="G210" s="7"/>
+      <c r="H210" s="7"/>
+      <c r="I210" s="7"/>
       <c r="J210" s="5"/>
       <c r="K210" s="5"/>
     </row>
@@ -7329,16 +7389,16 @@
       <c r="C211" s="5" t="s">
         <v>400</v>
       </c>
-      <c r="D211" s="9">
+      <c r="D211" s="8">
         <v>0.1842</v>
       </c>
-      <c r="E211" s="9">
+      <c r="E211" s="8">
         <v>0.11296250200000001</v>
       </c>
-      <c r="F211" s="8"/>
-      <c r="G211" s="8"/>
-      <c r="H211" s="8"/>
-      <c r="I211" s="8"/>
+      <c r="F211" s="7"/>
+      <c r="G211" s="7"/>
+      <c r="H211" s="7"/>
+      <c r="I211" s="7"/>
       <c r="J211" s="5"/>
       <c r="K211" s="5"/>
     </row>
@@ -7353,16 +7413,16 @@
       <c r="C212" s="5" t="s">
         <v>402</v>
       </c>
-      <c r="D212" s="9">
+      <c r="D212" s="8">
         <v>0.1961</v>
       </c>
-      <c r="E212" s="9">
+      <c r="E212" s="8">
         <v>0.11127245700000001</v>
       </c>
-      <c r="F212" s="8"/>
-      <c r="G212" s="8"/>
-      <c r="H212" s="8"/>
-      <c r="I212" s="8"/>
+      <c r="F212" s="7"/>
+      <c r="G212" s="7"/>
+      <c r="H212" s="7"/>
+      <c r="I212" s="7"/>
       <c r="J212" s="5"/>
       <c r="K212" s="5"/>
     </row>
@@ -7377,16 +7437,16 @@
       <c r="C213" s="5" t="s">
         <v>404</v>
       </c>
-      <c r="D213" s="9">
+      <c r="D213" s="8">
         <v>0.1706</v>
       </c>
-      <c r="E213" s="9">
+      <c r="E213" s="8">
         <v>0.111130327</v>
       </c>
-      <c r="F213" s="8"/>
-      <c r="G213" s="8"/>
-      <c r="H213" s="8"/>
-      <c r="I213" s="8"/>
+      <c r="F213" s="7"/>
+      <c r="G213" s="7"/>
+      <c r="H213" s="7"/>
+      <c r="I213" s="7"/>
       <c r="J213" s="5"/>
       <c r="K213" s="5"/>
     </row>
@@ -7401,16 +7461,16 @@
       <c r="C214" s="5" t="s">
         <v>405</v>
       </c>
-      <c r="D214" s="9">
+      <c r="D214" s="8">
         <v>0.1053</v>
       </c>
-      <c r="E214" s="9">
+      <c r="E214" s="8">
         <v>0.11037901</v>
       </c>
-      <c r="F214" s="8"/>
-      <c r="G214" s="8"/>
-      <c r="H214" s="8"/>
-      <c r="I214" s="8"/>
+      <c r="F214" s="7"/>
+      <c r="G214" s="7"/>
+      <c r="H214" s="7"/>
+      <c r="I214" s="7"/>
       <c r="J214" s="5"/>
       <c r="K214" s="5"/>
     </row>
@@ -7425,16 +7485,16 @@
       <c r="C215" s="5" t="s">
         <v>407</v>
       </c>
-      <c r="D215" s="9">
+      <c r="D215" s="8">
         <v>22756.99</v>
       </c>
-      <c r="E215" s="9">
+      <c r="E215" s="8">
         <v>0.10977622400000001</v>
       </c>
-      <c r="F215" s="8"/>
-      <c r="G215" s="8"/>
-      <c r="H215" s="8"/>
-      <c r="I215" s="8"/>
+      <c r="F215" s="7"/>
+      <c r="G215" s="7"/>
+      <c r="H215" s="7"/>
+      <c r="I215" s="7"/>
       <c r="J215" s="5"/>
       <c r="K215" s="5"/>
     </row>
@@ -7449,16 +7509,16 @@
       <c r="C216" s="5" t="s">
         <v>409</v>
       </c>
-      <c r="D216" s="9">
+      <c r="D216" s="8">
         <v>6.71</v>
       </c>
-      <c r="E216" s="9">
+      <c r="E216" s="8">
         <v>0.10873124200000001</v>
       </c>
-      <c r="F216" s="8"/>
-      <c r="G216" s="8"/>
-      <c r="H216" s="8"/>
-      <c r="I216" s="8"/>
+      <c r="F216" s="7"/>
+      <c r="G216" s="7"/>
+      <c r="H216" s="7"/>
+      <c r="I216" s="7"/>
       <c r="J216" s="5"/>
       <c r="K216" s="5"/>
     </row>
@@ -7473,16 +7533,16 @@
       <c r="C217" s="5" t="s">
         <v>411</v>
       </c>
-      <c r="D217" s="9">
+      <c r="D217" s="8">
         <v>0.35610000000000003</v>
       </c>
-      <c r="E217" s="9">
+      <c r="E217" s="8">
         <v>0.108054727</v>
       </c>
-      <c r="F217" s="8"/>
-      <c r="G217" s="8"/>
-      <c r="H217" s="8"/>
-      <c r="I217" s="8"/>
+      <c r="F217" s="7"/>
+      <c r="G217" s="7"/>
+      <c r="H217" s="7"/>
+      <c r="I217" s="7"/>
       <c r="J217" s="5"/>
       <c r="K217" s="5"/>
     </row>
@@ -7497,16 +7557,16 @@
       <c r="C218" s="5" t="s">
         <v>413</v>
       </c>
-      <c r="D218" s="9">
+      <c r="D218" s="8">
         <v>0.41720000000000002</v>
       </c>
-      <c r="E218" s="9">
+      <c r="E218" s="8">
         <v>0.10783683099999999</v>
       </c>
-      <c r="F218" s="8"/>
-      <c r="G218" s="8"/>
-      <c r="H218" s="8"/>
-      <c r="I218" s="8"/>
+      <c r="F218" s="7"/>
+      <c r="G218" s="7"/>
+      <c r="H218" s="7"/>
+      <c r="I218" s="7"/>
       <c r="J218" s="5"/>
       <c r="K218" s="5"/>
     </row>
@@ -7521,16 +7581,16 @@
       <c r="C219" s="5" t="s">
         <v>415</v>
       </c>
-      <c r="D219" s="9">
+      <c r="D219" s="8">
         <v>0.2636</v>
       </c>
-      <c r="E219" s="9">
+      <c r="E219" s="8">
         <v>0.10767146</v>
       </c>
-      <c r="F219" s="8"/>
-      <c r="G219" s="8"/>
-      <c r="H219" s="8"/>
-      <c r="I219" s="8"/>
+      <c r="F219" s="7"/>
+      <c r="G219" s="7"/>
+      <c r="H219" s="7"/>
+      <c r="I219" s="7"/>
       <c r="J219" s="5"/>
       <c r="K219" s="5"/>
     </row>
@@ -7545,16 +7605,16 @@
       <c r="C220" s="5" t="s">
         <v>417</v>
       </c>
-      <c r="D220" s="9">
+      <c r="D220" s="8">
         <v>1.52</v>
       </c>
-      <c r="E220" s="9">
+      <c r="E220" s="8">
         <v>0.10756921899999999</v>
       </c>
-      <c r="F220" s="8"/>
-      <c r="G220" s="8"/>
-      <c r="H220" s="8"/>
-      <c r="I220" s="8"/>
+      <c r="F220" s="7"/>
+      <c r="G220" s="7"/>
+      <c r="H220" s="7"/>
+      <c r="I220" s="7"/>
       <c r="J220" s="5"/>
       <c r="K220" s="5"/>
     </row>
@@ -7569,16 +7629,16 @@
       <c r="C221" s="5" t="s">
         <v>419</v>
       </c>
-      <c r="D221" s="9">
+      <c r="D221" s="8">
         <v>1.0839999999999999E-3</v>
       </c>
-      <c r="E221" s="9">
+      <c r="E221" s="8">
         <v>0.107357832</v>
       </c>
-      <c r="F221" s="8"/>
-      <c r="G221" s="8"/>
-      <c r="H221" s="8"/>
-      <c r="I221" s="8"/>
+      <c r="F221" s="7"/>
+      <c r="G221" s="7"/>
+      <c r="H221" s="7"/>
+      <c r="I221" s="7"/>
       <c r="J221" s="5"/>
       <c r="K221" s="5"/>
     </row>
@@ -7593,16 +7653,16 @@
       <c r="C222" s="5" t="s">
         <v>421</v>
       </c>
-      <c r="D222" s="9">
+      <c r="D222" s="8">
         <v>3.0849999999999999E-2</v>
       </c>
-      <c r="E222" s="9">
+      <c r="E222" s="8">
         <v>0.107066024</v>
       </c>
-      <c r="F222" s="8"/>
-      <c r="G222" s="8"/>
-      <c r="H222" s="8"/>
-      <c r="I222" s="8"/>
+      <c r="F222" s="7"/>
+      <c r="G222" s="7"/>
+      <c r="H222" s="7"/>
+      <c r="I222" s="7"/>
       <c r="J222" s="5"/>
       <c r="K222" s="5"/>
     </row>
@@ -7617,16 +7677,16 @@
       <c r="C223" s="5" t="s">
         <v>423</v>
       </c>
-      <c r="D223" s="9">
+      <c r="D223" s="8">
         <v>0.1072</v>
       </c>
-      <c r="E223" s="9">
+      <c r="E223" s="8">
         <v>0.107044131</v>
       </c>
-      <c r="F223" s="8"/>
-      <c r="G223" s="8"/>
-      <c r="H223" s="8"/>
-      <c r="I223" s="8"/>
+      <c r="F223" s="7"/>
+      <c r="G223" s="7"/>
+      <c r="H223" s="7"/>
+      <c r="I223" s="7"/>
       <c r="J223" s="5"/>
       <c r="K223" s="5"/>
     </row>
@@ -7641,16 +7701,16 @@
       <c r="C224" s="5" t="s">
         <v>425</v>
       </c>
-      <c r="D224" s="9">
+      <c r="D224" s="8">
         <v>8.201E-2</v>
       </c>
-      <c r="E224" s="9">
+      <c r="E224" s="8">
         <v>0.103903352</v>
       </c>
-      <c r="F224" s="8"/>
-      <c r="G224" s="8"/>
-      <c r="H224" s="8"/>
-      <c r="I224" s="8"/>
+      <c r="F224" s="7"/>
+      <c r="G224" s="7"/>
+      <c r="H224" s="7"/>
+      <c r="I224" s="7"/>
       <c r="J224" s="5"/>
       <c r="K224" s="5"/>
     </row>
@@ -7665,16 +7725,16 @@
       <c r="C225" s="5" t="s">
         <v>427</v>
       </c>
-      <c r="D225" s="9">
+      <c r="D225" s="8">
         <v>1.077E-3</v>
       </c>
-      <c r="E225" s="9">
+      <c r="E225" s="8">
         <v>0.103753708</v>
       </c>
-      <c r="F225" s="8"/>
-      <c r="G225" s="8"/>
-      <c r="H225" s="8"/>
-      <c r="I225" s="8"/>
+      <c r="F225" s="7"/>
+      <c r="G225" s="7"/>
+      <c r="H225" s="7"/>
+      <c r="I225" s="7"/>
       <c r="J225" s="5"/>
       <c r="K225" s="5"/>
     </row>
@@ -7689,16 +7749,16 @@
       <c r="C226" s="5" t="s">
         <v>429</v>
       </c>
-      <c r="D226" s="9">
+      <c r="D226" s="8">
         <v>0.84650000000000003</v>
       </c>
-      <c r="E226" s="9">
+      <c r="E226" s="8">
         <v>0.103631457</v>
       </c>
-      <c r="F226" s="8"/>
-      <c r="G226" s="8"/>
-      <c r="H226" s="8"/>
-      <c r="I226" s="8"/>
+      <c r="F226" s="7"/>
+      <c r="G226" s="7"/>
+      <c r="H226" s="7"/>
+      <c r="I226" s="7"/>
       <c r="J226" s="5"/>
       <c r="K226" s="5"/>
     </row>
@@ -7713,16 +7773,16 @@
       <c r="C227" s="5" t="s">
         <v>431</v>
       </c>
-      <c r="D227" s="9">
+      <c r="D227" s="8">
         <v>1.665E-3</v>
       </c>
-      <c r="E227" s="9">
+      <c r="E227" s="8">
         <v>0.102642196</v>
       </c>
-      <c r="F227" s="8"/>
-      <c r="G227" s="8"/>
-      <c r="H227" s="8"/>
-      <c r="I227" s="8"/>
+      <c r="F227" s="7"/>
+      <c r="G227" s="7"/>
+      <c r="H227" s="7"/>
+      <c r="I227" s="7"/>
       <c r="J227" s="5"/>
       <c r="K227" s="5"/>
     </row>
@@ -7737,16 +7797,16 @@
       <c r="C228" s="5" t="s">
         <v>433</v>
       </c>
-      <c r="D228" s="9">
+      <c r="D228" s="8">
         <v>1</v>
       </c>
-      <c r="E228" s="9">
+      <c r="E228" s="8">
         <v>0.10247070899999999</v>
       </c>
-      <c r="F228" s="8"/>
-      <c r="G228" s="8"/>
-      <c r="H228" s="8"/>
-      <c r="I228" s="8"/>
+      <c r="F228" s="7"/>
+      <c r="G228" s="7"/>
+      <c r="H228" s="7"/>
+      <c r="I228" s="7"/>
       <c r="J228" s="5"/>
       <c r="K228" s="5"/>
     </row>
@@ -7761,16 +7821,16 @@
       <c r="C229" s="5" t="s">
         <v>435</v>
       </c>
-      <c r="D229" s="9">
+      <c r="D229" s="8">
         <v>8.3800000000000008</v>
       </c>
-      <c r="E229" s="9">
+      <c r="E229" s="8">
         <v>0.10230676900000001</v>
       </c>
-      <c r="F229" s="8"/>
-      <c r="G229" s="8"/>
-      <c r="H229" s="8"/>
-      <c r="I229" s="8"/>
+      <c r="F229" s="7"/>
+      <c r="G229" s="7"/>
+      <c r="H229" s="7"/>
+      <c r="I229" s="7"/>
       <c r="J229" s="5"/>
       <c r="K229" s="5"/>
     </row>
@@ -7785,16 +7845,16 @@
       <c r="C230" s="5" t="s">
         <v>437</v>
       </c>
-      <c r="D230" s="9">
+      <c r="D230" s="8">
         <v>2.2179999999999999E-3</v>
       </c>
-      <c r="E230" s="9">
+      <c r="E230" s="8">
         <v>0.1012083</v>
       </c>
-      <c r="F230" s="8"/>
-      <c r="G230" s="8"/>
-      <c r="H230" s="8"/>
-      <c r="I230" s="8"/>
+      <c r="F230" s="7"/>
+      <c r="G230" s="7"/>
+      <c r="H230" s="7"/>
+      <c r="I230" s="7"/>
       <c r="J230" s="5"/>
       <c r="K230" s="5"/>
     </row>
@@ -7809,16 +7869,16 @@
       <c r="C231" s="5" t="s">
         <v>439</v>
       </c>
-      <c r="D231" s="9">
+      <c r="D231" s="8">
         <v>4.2300000000000004</v>
       </c>
-      <c r="E231" s="9">
+      <c r="E231" s="8">
         <v>0.10117152</v>
       </c>
-      <c r="F231" s="8"/>
-      <c r="G231" s="8"/>
-      <c r="H231" s="8"/>
-      <c r="I231" s="8"/>
+      <c r="F231" s="7"/>
+      <c r="G231" s="7"/>
+      <c r="H231" s="7"/>
+      <c r="I231" s="7"/>
       <c r="J231" s="5"/>
       <c r="K231" s="5"/>
     </row>
@@ -7833,16 +7893,16 @@
       <c r="C232" s="5" t="s">
         <v>440</v>
       </c>
-      <c r="D232" s="9">
+      <c r="D232" s="8">
         <v>1.79</v>
       </c>
-      <c r="E232" s="9">
+      <c r="E232" s="8">
         <v>0.101086226</v>
       </c>
-      <c r="F232" s="8"/>
-      <c r="G232" s="8"/>
-      <c r="H232" s="8"/>
-      <c r="I232" s="8"/>
+      <c r="F232" s="7"/>
+      <c r="G232" s="7"/>
+      <c r="H232" s="7"/>
+      <c r="I232" s="7"/>
       <c r="J232" s="5"/>
       <c r="K232" s="5"/>
     </row>
@@ -7857,16 +7917,16 @@
       <c r="C233" s="5" t="s">
         <v>442</v>
       </c>
-      <c r="D233" s="9">
+      <c r="D233" s="8">
         <v>0.26200000000000001</v>
       </c>
-      <c r="E233" s="9">
+      <c r="E233" s="8">
         <v>0.100043591</v>
       </c>
-      <c r="F233" s="8"/>
-      <c r="G233" s="8"/>
-      <c r="H233" s="8"/>
-      <c r="I233" s="8"/>
+      <c r="F233" s="7"/>
+      <c r="G233" s="7"/>
+      <c r="H233" s="7"/>
+      <c r="I233" s="7"/>
       <c r="J233" s="5"/>
       <c r="K233" s="5"/>
     </row>
@@ -7881,14 +7941,14 @@
       <c r="C234" s="5" t="s">
         <v>443</v>
       </c>
-      <c r="D234" s="9">
+      <c r="D234" s="8">
         <v>4.2840000000000003E-2</v>
       </c>
-      <c r="E234" s="9"/>
-      <c r="F234" s="8"/>
-      <c r="G234" s="8"/>
-      <c r="H234" s="8"/>
-      <c r="I234" s="8"/>
+      <c r="E234" s="8"/>
+      <c r="F234" s="7"/>
+      <c r="G234" s="7"/>
+      <c r="H234" s="7"/>
+      <c r="I234" s="7"/>
       <c r="J234" s="5"/>
       <c r="K234" s="5"/>
     </row>
@@ -7900,11 +7960,11 @@
       <c r="B235" s="5"/>
       <c r="C235" s="5"/>
       <c r="D235" s="6"/>
-      <c r="E235" s="9"/>
-      <c r="F235" s="8"/>
-      <c r="G235" s="8"/>
-      <c r="H235" s="8"/>
-      <c r="I235" s="8"/>
+      <c r="E235" s="8"/>
+      <c r="F235" s="7"/>
+      <c r="G235" s="7"/>
+      <c r="H235" s="7"/>
+      <c r="I235" s="7"/>
       <c r="J235" s="5"/>
       <c r="K235" s="5"/>
     </row>
@@ -7922,17 +7982,17 @@
       <c r="D236" s="6">
         <v>0.19389999999999999</v>
       </c>
-      <c r="E236" s="9">
+      <c r="E236" s="8">
         <v>22.223451000000001</v>
       </c>
-      <c r="F236" s="8">
+      <c r="F236" s="7">
         <v>2</v>
       </c>
-      <c r="G236" s="8" t="s">
+      <c r="G236" s="7" t="s">
         <v>478</v>
       </c>
-      <c r="H236" s="8"/>
-      <c r="I236" s="8" t="s">
+      <c r="H236" s="7"/>
+      <c r="I236" s="7" t="s">
         <v>2</v>
       </c>
       <c r="J236" s="5"/>
@@ -7946,11 +8006,11 @@
       <c r="B237" s="5"/>
       <c r="C237" s="5"/>
       <c r="D237" s="6"/>
-      <c r="E237" s="9"/>
-      <c r="F237" s="8"/>
-      <c r="G237" s="8"/>
-      <c r="H237" s="8"/>
-      <c r="I237" s="8"/>
+      <c r="E237" s="8"/>
+      <c r="F237" s="7"/>
+      <c r="G237" s="7"/>
+      <c r="H237" s="7"/>
+      <c r="I237" s="7"/>
       <c r="J237" s="5"/>
       <c r="K237" s="5"/>
     </row>
@@ -7962,11 +8022,11 @@
       <c r="B238" s="5"/>
       <c r="C238" s="5"/>
       <c r="D238" s="6"/>
-      <c r="E238" s="9"/>
-      <c r="F238" s="8"/>
-      <c r="G238" s="8"/>
-      <c r="H238" s="8"/>
-      <c r="I238" s="8"/>
+      <c r="E238" s="8"/>
+      <c r="F238" s="7"/>
+      <c r="G238" s="7"/>
+      <c r="H238" s="7"/>
+      <c r="I238" s="7"/>
       <c r="J238" s="5"/>
       <c r="K238" s="5"/>
     </row>
@@ -7978,11 +8038,11 @@
       <c r="B239" s="5"/>
       <c r="C239" s="5"/>
       <c r="D239" s="6"/>
-      <c r="E239" s="9"/>
-      <c r="F239" s="8"/>
-      <c r="G239" s="8"/>
-      <c r="H239" s="8"/>
-      <c r="I239" s="8"/>
+      <c r="E239" s="8"/>
+      <c r="F239" s="7"/>
+      <c r="G239" s="7"/>
+      <c r="H239" s="7"/>
+      <c r="I239" s="7"/>
       <c r="J239" s="5"/>
       <c r="K239" s="5"/>
     </row>
@@ -7994,17 +8054,17 @@
       <c r="B240" s="5"/>
       <c r="C240" s="5"/>
       <c r="D240" s="6"/>
-      <c r="E240" s="9"/>
-      <c r="F240" s="8"/>
-      <c r="G240" s="8"/>
-      <c r="H240" s="8"/>
-      <c r="I240" s="8"/>
+      <c r="E240" s="8"/>
+      <c r="F240" s="7"/>
+      <c r="G240" s="7"/>
+      <c r="H240" s="7"/>
+      <c r="I240" s="7"/>
       <c r="J240" s="5"/>
       <c r="K240" s="5"/>
     </row>
     <row r="241" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A241" s="3"/>
-      <c r="E241" s="19"/>
+      <c r="E241" s="18"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8016,7 +8076,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{093C885C-D022-4F0E-AE5D-1338C967532B}">
   <dimension ref="A1:J185"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+    <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C6" sqref="C6"/>
     </sheetView>
@@ -8031,7 +8091,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="19" t="s">
         <v>479</v>
       </c>
     </row>
@@ -8085,7 +8145,7 @@
       <c r="D5">
         <v>0.25819999999999999</v>
       </c>
-      <c r="E5" s="21">
+      <c r="E5" s="20">
         <v>38212.199999999997</v>
       </c>
     </row>
@@ -8103,7 +8163,7 @@
       <c r="D6">
         <v>1.5800000000000001E-5</v>
       </c>
-      <c r="E6" s="21">
+      <c r="E6" s="20">
         <v>9354.5779999999995</v>
       </c>
     </row>
@@ -8121,7 +8181,7 @@
       <c r="D7">
         <v>1.4E-5</v>
       </c>
-      <c r="E7" s="21">
+      <c r="E7" s="20">
         <v>4224.7</v>
       </c>
     </row>
@@ -8139,7 +8199,7 @@
       <c r="D8">
         <v>18.73</v>
       </c>
-      <c r="E8" s="21">
+      <c r="E8" s="20">
         <v>3745.1</v>
       </c>
     </row>
@@ -8157,7 +8217,7 @@
       <c r="D9">
         <v>1.7940000000000001E-5</v>
       </c>
-      <c r="E9" s="21">
+      <c r="E9" s="20">
         <v>1381.3</v>
       </c>
     </row>
@@ -8175,7 +8235,7 @@
       <c r="D10">
         <v>9.6169999999999996E-5</v>
       </c>
-      <c r="E10" s="21">
+      <c r="E10" s="20">
         <v>924.2</v>
       </c>
     </row>
@@ -8193,7 +8253,7 @@
       <c r="D11">
         <v>0.8024</v>
       </c>
-      <c r="E11" s="21">
+      <c r="E11" s="20">
         <v>801.53499999999997</v>
       </c>
     </row>
@@ -8211,7 +8271,7 @@
       <c r="D12">
         <v>1.66</v>
       </c>
-      <c r="E12" s="21">
+      <c r="E12" s="20">
         <v>802.34</v>
       </c>
     </row>
@@ -8229,7 +8289,7 @@
       <c r="D13">
         <v>1.2149999999999999E-2</v>
       </c>
-      <c r="E13" s="21">
+      <c r="E13" s="20">
         <v>763.64099999999996</v>
       </c>
     </row>
@@ -8247,7 +8307,7 @@
       <c r="D14">
         <v>0.75419999999999998</v>
       </c>
-      <c r="E14" s="21">
+      <c r="E14" s="20">
         <v>702.5</v>
       </c>
     </row>
@@ -8265,7 +8325,7 @@
       <c r="D15">
         <v>0.61850000000000005</v>
       </c>
-      <c r="E15" s="21">
+      <c r="E15" s="20">
         <v>620.1</v>
       </c>
     </row>
@@ -8283,7 +8343,7 @@
       <c r="D16">
         <v>5.5480000000000002E-2</v>
       </c>
-      <c r="E16" s="21">
+      <c r="E16" s="20">
         <v>549.6</v>
       </c>
     </row>
@@ -8301,7 +8361,7 @@
       <c r="D17">
         <v>0.34810000000000002</v>
       </c>
-      <c r="E17" s="21">
+      <c r="E17" s="20">
         <v>382.2</v>
       </c>
     </row>
@@ -8319,7 +8379,7 @@
       <c r="D18">
         <v>4.0309999999999999E-2</v>
       </c>
-      <c r="E18" s="21">
+      <c r="E18" s="20">
         <v>375</v>
       </c>
     </row>
@@ -8337,7 +8397,7 @@
       <c r="D19">
         <v>9.0019999999999998E-4</v>
       </c>
-      <c r="E19" s="21">
+      <c r="E19" s="20">
         <v>367.35309599999999</v>
       </c>
     </row>
@@ -8355,7 +8415,7 @@
       <c r="D20">
         <v>6.8970000000000004E-2</v>
       </c>
-      <c r="E20" s="21">
+      <c r="E20" s="20">
         <v>351</v>
       </c>
     </row>
@@ -8373,7 +8433,7 @@
       <c r="D21">
         <v>2.885E-3</v>
       </c>
-      <c r="E21" s="21">
+      <c r="E21" s="20">
         <v>295.60000000000002</v>
       </c>
     </row>
@@ -8391,7 +8451,7 @@
       <c r="D22">
         <v>3.1700000000000001E-3</v>
       </c>
-      <c r="E22" s="21">
+      <c r="E22" s="20">
         <v>282.7</v>
       </c>
     </row>
@@ -8409,7 +8469,7 @@
       <c r="D23">
         <v>4.0759999999999998E-3</v>
       </c>
-      <c r="E23" s="21">
+      <c r="E23" s="20">
         <v>281.2</v>
       </c>
     </row>
@@ -8427,7 +8487,7 @@
       <c r="D24">
         <v>8.1499999999999993E-3</v>
       </c>
-      <c r="E24" s="21">
+      <c r="E24" s="20">
         <v>253.8</v>
       </c>
     </row>
@@ -8445,7 +8505,7 @@
       <c r="D25">
         <v>0.2319</v>
       </c>
-      <c r="E25" s="21">
+      <c r="E25" s="20">
         <v>227.2</v>
       </c>
     </row>
@@ -8463,7 +8523,7 @@
       <c r="D26">
         <v>12.49</v>
       </c>
-      <c r="E26" s="21">
+      <c r="E26" s="20">
         <v>1080.3</v>
       </c>
     </row>
@@ -8481,7 +8541,7 @@
       <c r="D27">
         <v>4.8440000000000002E-3</v>
       </c>
-      <c r="E27" s="21">
+      <c r="E27" s="20">
         <v>360.48599999999999</v>
       </c>
     </row>
@@ -8499,7 +8559,7 @@
       <c r="D28">
         <v>3.1089999999999998E-3</v>
       </c>
-      <c r="E28" s="21">
+      <c r="E28" s="20">
         <v>310.8</v>
       </c>
     </row>
@@ -8517,7 +8577,7 @@
       <c r="D29">
         <v>0.37890000000000001</v>
       </c>
-      <c r="E29" s="21">
+      <c r="E29" s="20">
         <v>284.2</v>
       </c>
     </row>
@@ -8535,7 +8595,7 @@
       <c r="D30">
         <v>0.19139999999999999</v>
       </c>
-      <c r="E30" s="21">
+      <c r="E30" s="20">
         <v>181.5</v>
       </c>
     </row>
@@ -8553,7 +8613,7 @@
       <c r="D31">
         <v>4.4600000000000004E-3</v>
       </c>
-      <c r="E31" s="21">
+      <c r="E31" s="20">
         <v>169.833</v>
       </c>
     </row>
@@ -8571,7 +8631,7 @@
       <c r="D32">
         <v>0.16750000000000001</v>
       </c>
-      <c r="E32" s="21">
+      <c r="E32" s="20">
         <v>167.5</v>
       </c>
     </row>
@@ -8589,7 +8649,7 @@
       <c r="D33">
         <v>6.7932000000000006E-2</v>
       </c>
-      <c r="E33" s="21">
+      <c r="E33" s="20">
         <v>148.708</v>
       </c>
     </row>
@@ -8607,7 +8667,7 @@
       <c r="D34">
         <v>3.344E-4</v>
       </c>
-      <c r="E34" s="21">
+      <c r="E34" s="20">
         <v>140.69999999999999</v>
       </c>
     </row>
@@ -8625,7 +8685,7 @@
       <c r="D35">
         <v>2.0330000000000001E-3</v>
       </c>
-      <c r="E35" s="21">
+      <c r="E35" s="20">
         <v>140.19999999999999</v>
       </c>
     </row>
@@ -8643,7 +8703,7 @@
       <c r="D36">
         <v>6.2348000000000004E-3</v>
       </c>
-      <c r="E36" s="21">
+      <c r="E36" s="20">
         <v>129.1</v>
       </c>
     </row>
@@ -8661,7 +8721,7 @@
       <c r="D37">
         <v>0.12479999999999999</v>
       </c>
-      <c r="E37" s="21">
+      <c r="E37" s="20">
         <v>124.9</v>
       </c>
     </row>
@@ -8679,7 +8739,7 @@
       <c r="D38">
         <v>0.10639999999999999</v>
       </c>
-      <c r="E38" s="21">
+      <c r="E38" s="20">
         <v>105.9</v>
       </c>
     </row>
@@ -8697,7 +8757,7 @@
       <c r="D39">
         <v>1.3089999999999999E-2</v>
       </c>
-      <c r="E39" s="21">
+      <c r="E39" s="20">
         <v>95.7</v>
       </c>
     </row>
@@ -8715,7 +8775,7 @@
       <c r="D40">
         <v>1.3980000000000001E-4</v>
       </c>
-      <c r="E40" s="21">
+      <c r="E40" s="20">
         <v>93.2</v>
       </c>
     </row>
@@ -8733,441 +8793,441 @@
       <c r="D41">
         <v>9.0310000000000001E-2</v>
       </c>
-      <c r="E41" s="21">
+      <c r="E41" s="20">
         <v>90.3</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E42" s="21"/>
+      <c r="E42" s="20"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E43" s="21"/>
+      <c r="E43" s="20"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E44" s="21"/>
+      <c r="E44" s="20"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E45" s="21"/>
+      <c r="E45" s="20"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E46" s="21"/>
+      <c r="E46" s="20"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E47" s="21"/>
+      <c r="E47" s="20"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E48" s="21"/>
+      <c r="E48" s="20"/>
     </row>
     <row r="49" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E49" s="21"/>
+      <c r="E49" s="20"/>
     </row>
     <row r="50" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E50" s="21"/>
+      <c r="E50" s="20"/>
     </row>
     <row r="51" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E51" s="21"/>
+      <c r="E51" s="20"/>
     </row>
     <row r="52" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E52" s="21"/>
+      <c r="E52" s="20"/>
     </row>
     <row r="53" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E53" s="21"/>
+      <c r="E53" s="20"/>
     </row>
     <row r="54" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E54" s="21"/>
+      <c r="E54" s="20"/>
     </row>
     <row r="55" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E55" s="21"/>
+      <c r="E55" s="20"/>
     </row>
     <row r="56" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E56" s="21"/>
+      <c r="E56" s="20"/>
     </row>
     <row r="57" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E57" s="21"/>
+      <c r="E57" s="20"/>
     </row>
     <row r="58" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E58" s="21"/>
+      <c r="E58" s="20"/>
     </row>
     <row r="59" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E59" s="21"/>
+      <c r="E59" s="20"/>
     </row>
     <row r="60" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E60" s="21"/>
+      <c r="E60" s="20"/>
     </row>
     <row r="61" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E61" s="21"/>
+      <c r="E61" s="20"/>
     </row>
     <row r="62" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E62" s="21"/>
+      <c r="E62" s="20"/>
     </row>
     <row r="63" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E63" s="21"/>
+      <c r="E63" s="20"/>
     </row>
     <row r="64" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E64" s="21"/>
+      <c r="E64" s="20"/>
     </row>
     <row r="65" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E65" s="21"/>
+      <c r="E65" s="20"/>
     </row>
     <row r="66" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E66" s="21"/>
+      <c r="E66" s="20"/>
     </row>
     <row r="67" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E67" s="21"/>
+      <c r="E67" s="20"/>
     </row>
     <row r="68" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E68" s="21"/>
+      <c r="E68" s="20"/>
     </row>
     <row r="69" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E69" s="21"/>
+      <c r="E69" s="20"/>
     </row>
     <row r="70" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E70" s="21"/>
+      <c r="E70" s="20"/>
     </row>
     <row r="71" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E71" s="21"/>
+      <c r="E71" s="20"/>
     </row>
     <row r="72" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E72" s="21"/>
+      <c r="E72" s="20"/>
     </row>
     <row r="73" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E73" s="21"/>
+      <c r="E73" s="20"/>
     </row>
     <row r="74" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E74" s="21"/>
+      <c r="E74" s="20"/>
     </row>
     <row r="75" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E75" s="21"/>
+      <c r="E75" s="20"/>
     </row>
     <row r="76" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E76" s="21"/>
+      <c r="E76" s="20"/>
     </row>
     <row r="77" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E77" s="21"/>
+      <c r="E77" s="20"/>
     </row>
     <row r="78" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E78" s="21"/>
+      <c r="E78" s="20"/>
     </row>
     <row r="79" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E79" s="21"/>
+      <c r="E79" s="20"/>
     </row>
     <row r="80" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E80" s="21"/>
+      <c r="E80" s="20"/>
     </row>
     <row r="81" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E81" s="21"/>
+      <c r="E81" s="20"/>
     </row>
     <row r="82" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E82" s="21"/>
+      <c r="E82" s="20"/>
     </row>
     <row r="83" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E83" s="21"/>
+      <c r="E83" s="20"/>
     </row>
     <row r="84" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E84" s="21"/>
+      <c r="E84" s="20"/>
     </row>
     <row r="85" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E85" s="21"/>
+      <c r="E85" s="20"/>
     </row>
     <row r="86" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E86" s="21"/>
+      <c r="E86" s="20"/>
     </row>
     <row r="87" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E87" s="21"/>
+      <c r="E87" s="20"/>
     </row>
     <row r="88" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E88" s="21"/>
+      <c r="E88" s="20"/>
     </row>
     <row r="89" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E89" s="21"/>
+      <c r="E89" s="20"/>
     </row>
     <row r="90" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E90" s="21"/>
+      <c r="E90" s="20"/>
     </row>
     <row r="91" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E91" s="21"/>
+      <c r="E91" s="20"/>
     </row>
     <row r="92" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E92" s="21"/>
+      <c r="E92" s="20"/>
     </row>
     <row r="93" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E93" s="21"/>
+      <c r="E93" s="20"/>
     </row>
     <row r="94" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E94" s="21"/>
+      <c r="E94" s="20"/>
     </row>
     <row r="95" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E95" s="21"/>
+      <c r="E95" s="20"/>
     </row>
     <row r="96" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E96" s="21"/>
+      <c r="E96" s="20"/>
     </row>
     <row r="97" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E97" s="21"/>
+      <c r="E97" s="20"/>
     </row>
     <row r="98" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E98" s="21"/>
+      <c r="E98" s="20"/>
     </row>
     <row r="99" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E99" s="21"/>
+      <c r="E99" s="20"/>
     </row>
     <row r="100" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E100" s="21"/>
+      <c r="E100" s="20"/>
     </row>
     <row r="101" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E101" s="21"/>
+      <c r="E101" s="20"/>
     </row>
     <row r="102" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E102" s="21"/>
+      <c r="E102" s="20"/>
     </row>
     <row r="103" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E103" s="21"/>
+      <c r="E103" s="20"/>
     </row>
     <row r="104" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E104" s="21"/>
+      <c r="E104" s="20"/>
     </row>
     <row r="105" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E105" s="21"/>
+      <c r="E105" s="20"/>
     </row>
     <row r="106" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E106" s="21"/>
+      <c r="E106" s="20"/>
     </row>
     <row r="107" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E107" s="21"/>
+      <c r="E107" s="20"/>
     </row>
     <row r="108" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E108" s="21"/>
+      <c r="E108" s="20"/>
     </row>
     <row r="109" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E109" s="21"/>
+      <c r="E109" s="20"/>
     </row>
     <row r="110" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E110" s="21"/>
+      <c r="E110" s="20"/>
     </row>
     <row r="111" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E111" s="21"/>
+      <c r="E111" s="20"/>
     </row>
     <row r="112" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E112" s="21"/>
+      <c r="E112" s="20"/>
     </row>
     <row r="113" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E113" s="21"/>
+      <c r="E113" s="20"/>
     </row>
     <row r="114" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E114" s="21"/>
+      <c r="E114" s="20"/>
     </row>
     <row r="115" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E115" s="21"/>
+      <c r="E115" s="20"/>
     </row>
     <row r="116" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E116" s="21"/>
+      <c r="E116" s="20"/>
     </row>
     <row r="117" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E117" s="21"/>
+      <c r="E117" s="20"/>
     </row>
     <row r="118" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E118" s="21"/>
+      <c r="E118" s="20"/>
     </row>
     <row r="119" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E119" s="21"/>
+      <c r="E119" s="20"/>
     </row>
     <row r="120" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E120" s="21"/>
+      <c r="E120" s="20"/>
     </row>
     <row r="121" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E121" s="21"/>
+      <c r="E121" s="20"/>
     </row>
     <row r="122" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E122" s="21"/>
+      <c r="E122" s="20"/>
     </row>
     <row r="123" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E123" s="21"/>
+      <c r="E123" s="20"/>
     </row>
     <row r="124" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E124" s="21"/>
+      <c r="E124" s="20"/>
     </row>
     <row r="125" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E125" s="21"/>
+      <c r="E125" s="20"/>
     </row>
     <row r="126" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E126" s="21"/>
+      <c r="E126" s="20"/>
     </row>
     <row r="127" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E127" s="21"/>
+      <c r="E127" s="20"/>
     </row>
     <row r="128" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E128" s="21"/>
+      <c r="E128" s="20"/>
     </row>
     <row r="129" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E129" s="21"/>
+      <c r="E129" s="20"/>
     </row>
     <row r="130" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E130" s="21"/>
+      <c r="E130" s="20"/>
     </row>
     <row r="131" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E131" s="21"/>
+      <c r="E131" s="20"/>
     </row>
     <row r="132" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E132" s="21"/>
+      <c r="E132" s="20"/>
     </row>
     <row r="133" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E133" s="21"/>
+      <c r="E133" s="20"/>
     </row>
     <row r="134" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E134" s="21"/>
+      <c r="E134" s="20"/>
     </row>
     <row r="135" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E135" s="21"/>
+      <c r="E135" s="20"/>
     </row>
     <row r="136" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E136" s="21"/>
+      <c r="E136" s="20"/>
     </row>
     <row r="137" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E137" s="21"/>
+      <c r="E137" s="20"/>
     </row>
     <row r="138" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E138" s="21"/>
+      <c r="E138" s="20"/>
     </row>
     <row r="139" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E139" s="21"/>
+      <c r="E139" s="20"/>
     </row>
     <row r="140" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E140" s="21"/>
+      <c r="E140" s="20"/>
     </row>
     <row r="141" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E141" s="21"/>
+      <c r="E141" s="20"/>
     </row>
     <row r="142" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E142" s="21"/>
+      <c r="E142" s="20"/>
     </row>
     <row r="143" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E143" s="21"/>
+      <c r="E143" s="20"/>
     </row>
     <row r="144" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E144" s="21"/>
+      <c r="E144" s="20"/>
     </row>
     <row r="145" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E145" s="21"/>
+      <c r="E145" s="20"/>
     </row>
     <row r="146" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E146" s="21"/>
+      <c r="E146" s="20"/>
     </row>
     <row r="147" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E147" s="21"/>
+      <c r="E147" s="20"/>
     </row>
     <row r="148" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E148" s="21"/>
+      <c r="E148" s="20"/>
     </row>
     <row r="149" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E149" s="21"/>
+      <c r="E149" s="20"/>
     </row>
     <row r="150" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E150" s="21"/>
+      <c r="E150" s="20"/>
     </row>
     <row r="151" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E151" s="21"/>
+      <c r="E151" s="20"/>
     </row>
     <row r="152" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E152" s="21"/>
+      <c r="E152" s="20"/>
     </row>
     <row r="153" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E153" s="21"/>
+      <c r="E153" s="20"/>
     </row>
     <row r="154" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E154" s="21"/>
+      <c r="E154" s="20"/>
     </row>
     <row r="155" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E155" s="21"/>
+      <c r="E155" s="20"/>
     </row>
     <row r="156" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E156" s="21"/>
+      <c r="E156" s="20"/>
     </row>
     <row r="157" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E157" s="21"/>
+      <c r="E157" s="20"/>
     </row>
     <row r="158" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E158" s="21"/>
+      <c r="E158" s="20"/>
     </row>
     <row r="159" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E159" s="21"/>
+      <c r="E159" s="20"/>
     </row>
     <row r="160" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E160" s="21"/>
+      <c r="E160" s="20"/>
     </row>
     <row r="161" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E161" s="21"/>
+      <c r="E161" s="20"/>
     </row>
     <row r="162" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E162" s="21"/>
+      <c r="E162" s="20"/>
     </row>
     <row r="163" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E163" s="21"/>
+      <c r="E163" s="20"/>
     </row>
     <row r="164" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E164" s="21"/>
+      <c r="E164" s="20"/>
     </row>
     <row r="165" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E165" s="21"/>
+      <c r="E165" s="20"/>
     </row>
     <row r="166" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E166" s="21"/>
+      <c r="E166" s="20"/>
     </row>
     <row r="167" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E167" s="21"/>
+      <c r="E167" s="20"/>
     </row>
     <row r="168" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E168" s="21"/>
+      <c r="E168" s="20"/>
     </row>
     <row r="169" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E169" s="21"/>
+      <c r="E169" s="20"/>
     </row>
     <row r="170" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E170" s="21"/>
+      <c r="E170" s="20"/>
     </row>
     <row r="171" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E171" s="21"/>
+      <c r="E171" s="20"/>
     </row>
     <row r="172" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E172" s="21"/>
+      <c r="E172" s="20"/>
     </row>
     <row r="173" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E173" s="21"/>
+      <c r="E173" s="20"/>
     </row>
     <row r="174" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E174" s="21"/>
+      <c r="E174" s="20"/>
     </row>
     <row r="175" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E175" s="21"/>
+      <c r="E175" s="20"/>
     </row>
     <row r="176" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E176" s="21"/>
+      <c r="E176" s="20"/>
     </row>
     <row r="177" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E177" s="21"/>
+      <c r="E177" s="20"/>
     </row>
     <row r="178" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E178" s="21"/>
+      <c r="E178" s="20"/>
     </row>
     <row r="179" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E179" s="21"/>
+      <c r="E179" s="20"/>
     </row>
     <row r="180" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E180" s="21"/>
+      <c r="E180" s="20"/>
     </row>
     <row r="181" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E181" s="21"/>
+      <c r="E181" s="20"/>
     </row>
     <row r="182" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E182" s="21"/>
+      <c r="E182" s="20"/>
     </row>
     <row r="183" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E183" s="21"/>
+      <c r="E183" s="20"/>
     </row>
     <row r="184" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E184" s="21"/>
+      <c r="E184" s="20"/>
     </row>
     <row r="185" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E185" s="21"/>
+      <c r="E185" s="20"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
